--- a/output/dd_grid_results.xlsx
+++ b/output/dd_grid_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="drawdown" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="drawdown" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -466,7 +466,7 @@
         <v>141.4213562373095</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.032962325504049</v>
+        <v>-3.016481162752024</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>136.631812111441</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.160552740133787</v>
+        <v>-3.080276370066894</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         <v>132.0288946143217</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.287652266931213</v>
+        <v>-3.143826133465606</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>127.6327967125638</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.413425379364228</v>
+        <v>-3.206712689682114</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>123.465612344608</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.536875269040906</v>
+        <v>-3.268437634520453</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>119.5512815404118</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.656832586043303</v>
+        <v>-3.328416293021652</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>115.9154228549766</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.771951579829506</v>
+        <v>-3.385975789914753</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>112.5850187401001</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>109.58792125566</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.981470428803291</v>
+        <v>-3.490735214401646</v>
       </c>
     </row>
     <row r="11">
@@ -592,7 +592,7 @@
         <v>106.9521546156608</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.072447213416867</v>
+        <v>-3.536223606708433</v>
       </c>
     </row>
     <row r="12">
@@ -606,7 +606,7 @@
         <v>104.7050100047516</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.151848034620062</v>
+        <v>-3.575924017310031</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>101.4754411693942</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.269078160270714</v>
+        <v>-3.634539080135357</v>
       </c>
     </row>
     <row r="15">
@@ -648,7 +648,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.303985085654316</v>
+        <v>-3.651992542827158</v>
       </c>
     </row>
     <row r="16">
@@ -662,7 +662,7 @@
         <v>100.059435369289</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.321688736434033</v>
+        <v>-3.660844368217016</v>
       </c>
     </row>
     <row r="17">
@@ -676,7 +676,7 @@
         <v>100.059435369289</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.321688736434033</v>
+        <v>-3.660844368217016</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.303985085654316</v>
+        <v>-3.651992542827158</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>101.4754411693942</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.269078160270714</v>
+        <v>-3.634539080135357</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="21">
@@ -732,7 +732,7 @@
         <v>104.7050100047516</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.151848034620062</v>
+        <v>-3.575924017310031</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>106.9521546156608</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.072447213416867</v>
+        <v>-3.536223606708433</v>
       </c>
     </row>
     <row r="23">
@@ -760,7 +760,7 @@
         <v>109.58792125566</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.981470428803291</v>
+        <v>-3.490735214401646</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>112.5850187401001</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="25">
@@ -788,7 +788,7 @@
         <v>115.9154228549766</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.771951579829506</v>
+        <v>-3.385975789914753</v>
       </c>
     </row>
     <row r="26">
@@ -802,7 +802,7 @@
         <v>119.5512815404118</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.656832586043303</v>
+        <v>-3.328416293021652</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>123.465612344608</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.536875269040906</v>
+        <v>-3.268437634520453</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>127.6327967125638</v>
       </c>
       <c r="D28" t="n">
-        <v>-6.413425379364228</v>
+        <v>-3.206712689682114</v>
       </c>
     </row>
     <row r="29">
@@ -844,7 +844,7 @@
         <v>132.0288946143217</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.287652266931214</v>
+        <v>-3.143826133465607</v>
       </c>
     </row>
     <row r="30">
@@ -858,7 +858,7 @@
         <v>136.631812111441</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.160552740133787</v>
+        <v>-3.080276370066894</v>
       </c>
     </row>
     <row r="31">
@@ -872,7 +872,7 @@
         <v>141.4213562373095</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.032962325504049</v>
+        <v>-3.016481162752024</v>
       </c>
     </row>
     <row r="32">
@@ -886,7 +886,7 @@
         <v>136.631812111441</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.160552740133787</v>
+        <v>-3.080276370066894</v>
       </c>
     </row>
     <row r="33">
@@ -900,7 +900,7 @@
         <v>131.6681592554261</v>
       </c>
       <c r="D33" t="n">
-        <v>-6.297807659216862</v>
+        <v>-3.148903829608431</v>
       </c>
     </row>
     <row r="34">
@@ -914,7 +914,7 @@
         <v>126.8853068480972</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.435258495009284</v>
+        <v>-3.217629247504642</v>
       </c>
     </row>
     <row r="35">
@@ -928,7 +928,7 @@
         <v>122.3044679377117</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.572043782566354</v>
+        <v>-3.286021891283177</v>
       </c>
     </row>
     <row r="36">
@@ -942,7 +942,7 @@
         <v>117.9491819068074</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.707106398305463</v>
+        <v>-3.353553199152731</v>
       </c>
     </row>
     <row r="37">
@@ -956,7 +956,7 @@
         <v>113.8453380635805</v>
       </c>
       <c r="D37" t="n">
-        <v>-6.839172076491775</v>
+        <v>-3.419586038245888</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>110.0210767830608</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.966735045164554</v>
+        <v>-3.483367522582277</v>
       </c>
     </row>
     <row r="39">
@@ -984,7 +984,7 @@
         <v>106.5065186998655</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.088056333958468</v>
+        <v>-3.544028166979234</v>
       </c>
     </row>
     <row r="40">
@@ -998,7 +998,7 @@
         <v>103.333269405322</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.201181524244215</v>
+        <v>-3.600590762122108</v>
       </c>
     </row>
     <row r="41">
@@ -1012,7 +1012,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.303985085654318</v>
+        <v>-3.651992542827159</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>98.13965152246693</v>
       </c>
       <c r="D42" t="n">
-        <v>-7.39424715098176</v>
+        <v>-3.69712357549088</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>96.18155642056105</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.469764815047496</v>
+        <v>-3.734882407523748</v>
       </c>
     </row>
     <row r="44">
@@ -1054,7 +1054,7 @@
         <v>94.68641529479986</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.528493481274289</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="45">
@@ -1068,7 +1068,7 @@
         <v>93.67639798073189</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.568705204128375</v>
+        <v>-3.784352602064188</v>
       </c>
     </row>
     <row r="46">
@@ -1082,7 +1082,7 @@
         <v>93.1672833524572</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="47">
@@ -1096,7 +1096,7 @@
         <v>93.1672833524572</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>93.67639798073189</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.568705204128375</v>
+        <v>-3.784352602064188</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>94.68641529479986</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.528493481274289</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1138,7 @@
         <v>96.18155642056105</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.469764815047496</v>
+        <v>-3.734882407523748</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1152,7 @@
         <v>98.13965152246693</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.39424715098176</v>
+        <v>-3.69712357549088</v>
       </c>
     </row>
     <row r="52">
@@ -1166,7 +1166,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.303985085654318</v>
+        <v>-3.651992542827159</v>
       </c>
     </row>
     <row r="53">
@@ -1180,7 +1180,7 @@
         <v>103.333269405322</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.201181524244215</v>
+        <v>-3.600590762122108</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>106.5065186998655</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.088056333958468</v>
+        <v>-3.544028166979234</v>
       </c>
     </row>
     <row r="55">
@@ -1208,7 +1208,7 @@
         <v>110.0210767830608</v>
       </c>
       <c r="D55" t="n">
-        <v>-6.966735045164554</v>
+        <v>-3.483367522582277</v>
       </c>
     </row>
     <row r="56">
@@ -1222,7 +1222,7 @@
         <v>113.8453380635805</v>
       </c>
       <c r="D56" t="n">
-        <v>-6.839172076491775</v>
+        <v>-3.419586038245888</v>
       </c>
     </row>
     <row r="57">
@@ -1236,7 +1236,7 @@
         <v>117.9491819068074</v>
       </c>
       <c r="D57" t="n">
-        <v>-6.707106398305463</v>
+        <v>-3.353553199152731</v>
       </c>
     </row>
     <row r="58">
@@ -1250,7 +1250,7 @@
         <v>122.3044679377117</v>
       </c>
       <c r="D58" t="n">
-        <v>-6.572043782566354</v>
+        <v>-3.286021891283177</v>
       </c>
     </row>
     <row r="59">
@@ -1264,7 +1264,7 @@
         <v>126.8853068480972</v>
       </c>
       <c r="D59" t="n">
-        <v>-6.435258495009285</v>
+        <v>-3.217629247504643</v>
       </c>
     </row>
     <row r="60">
@@ -1278,7 +1278,7 @@
         <v>131.6681592554261</v>
       </c>
       <c r="D60" t="n">
-        <v>-6.297807659216862</v>
+        <v>-3.148903829608431</v>
       </c>
     </row>
     <row r="61">
@@ -1292,7 +1292,7 @@
         <v>136.631812111441</v>
       </c>
       <c r="D61" t="n">
-        <v>-6.160552740133787</v>
+        <v>-3.080276370066894</v>
       </c>
     </row>
     <row r="62">
@@ -1306,7 +1306,7 @@
         <v>132.0288946143217</v>
       </c>
       <c r="D62" t="n">
-        <v>-6.287652266931213</v>
+        <v>-3.143826133465606</v>
       </c>
     </row>
     <row r="63">
@@ -1320,7 +1320,7 @@
         <v>126.8853068480972</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.435258495009284</v>
+        <v>-3.217629247504642</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>121.9149622735427</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.583918564530239</v>
+        <v>-3.29195928226512</v>
       </c>
     </row>
     <row r="65">
@@ -1348,7 +1348,7 @@
         <v>117.1399155273312</v>
       </c>
       <c r="D65" t="n">
-        <v>-6.732770029660177</v>
+        <v>-3.366385014830088</v>
       </c>
     </row>
     <row r="66">
@@ -1362,7 +1362,7 @@
         <v>112.5850187401001</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>108.2780584007419</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.026397429019736</v>
+        <v>-3.513198714509868</v>
       </c>
     </row>
     <row r="68">
@@ -1390,7 +1390,7 @@
         <v>104.2497686746964</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.168146525526846</v>
+        <v>-3.584073262763423</v>
       </c>
     </row>
     <row r="69">
@@ -1404,7 +1404,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.303985085654316</v>
+        <v>-3.651992542827158</v>
       </c>
     </row>
     <row r="70">
@@ -1418,7 +1418,7 @@
         <v>97.16553657658876</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.431621239967675</v>
+        <v>-3.715810619983837</v>
       </c>
     </row>
     <row r="71">
@@ -1432,7 +1432,7 @@
         <v>94.18276057757009</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.548490395996804</v>
+        <v>-3.774245197998402</v>
       </c>
     </row>
     <row r="72">
@@ -1446,7 +1446,7 @@
         <v>91.62296727990638</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.651840771095009</v>
+        <v>-3.825920385547505</v>
       </c>
     </row>
     <row r="73">
@@ -1460,7 +1460,7 @@
         <v>89.52244817756669</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.738872673812097</v>
+        <v>-3.869436336906049</v>
       </c>
     </row>
     <row r="74">
@@ -1474,7 +1474,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D74" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="75">
@@ -1488,7 +1488,7 @@
         <v>86.82536766906325</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.853724849039664</v>
+        <v>-3.926862424519832</v>
       </c>
     </row>
     <row r="76">
@@ -1502,7 +1502,7 @@
         <v>86.27583450480554</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.87757126706097</v>
+        <v>-3.938785633530485</v>
       </c>
     </row>
     <row r="77">
@@ -1516,7 +1516,7 @@
         <v>86.27583450480554</v>
       </c>
       <c r="D77" t="n">
-        <v>-7.87757126706097</v>
+        <v>-3.938785633530485</v>
       </c>
     </row>
     <row r="78">
@@ -1530,7 +1530,7 @@
         <v>86.82536766906325</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.853724849039664</v>
+        <v>-3.926862424519832</v>
       </c>
     </row>
     <row r="79">
@@ -1544,7 +1544,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="80">
@@ -1558,7 +1558,7 @@
         <v>89.52244817756669</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.738872673812097</v>
+        <v>-3.869436336906049</v>
       </c>
     </row>
     <row r="81">
@@ -1572,7 +1572,7 @@
         <v>91.62296727990636</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.651840771095009</v>
+        <v>-3.825920385547505</v>
       </c>
     </row>
     <row r="82">
@@ -1586,7 +1586,7 @@
         <v>94.18276057757008</v>
       </c>
       <c r="D82" t="n">
-        <v>-7.548490395996806</v>
+        <v>-3.774245197998403</v>
       </c>
     </row>
     <row r="83">
@@ -1600,7 +1600,7 @@
         <v>97.16553657658876</v>
       </c>
       <c r="D83" t="n">
-        <v>-7.431621239967675</v>
+        <v>-3.715810619983837</v>
       </c>
     </row>
     <row r="84">
@@ -1614,7 +1614,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.303985085654316</v>
+        <v>-3.651992542827158</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>104.2497686746964</v>
       </c>
       <c r="D85" t="n">
-        <v>-7.168146525526846</v>
+        <v>-3.584073262763423</v>
       </c>
     </row>
     <row r="86">
@@ -1642,7 +1642,7 @@
         <v>108.2780584007419</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.026397429019736</v>
+        <v>-3.513198714509868</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>112.5850187401</v>
       </c>
       <c r="D87" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="88">
@@ -1670,7 +1670,7 @@
         <v>117.1399155273312</v>
       </c>
       <c r="D88" t="n">
-        <v>-6.732770029660179</v>
+        <v>-3.366385014830089</v>
       </c>
     </row>
     <row r="89">
@@ -1684,7 +1684,7 @@
         <v>121.9149622735427</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.583918564530239</v>
+        <v>-3.29195928226512</v>
       </c>
     </row>
     <row r="90">
@@ -1698,7 +1698,7 @@
         <v>126.8853068480972</v>
       </c>
       <c r="D90" t="n">
-        <v>-6.435258495009284</v>
+        <v>-3.217629247504642</v>
       </c>
     </row>
     <row r="91">
@@ -1712,7 +1712,7 @@
         <v>132.0288946143217</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.287652266931213</v>
+        <v>-3.143826133465606</v>
       </c>
     </row>
     <row r="92">
@@ -1726,7 +1726,7 @@
         <v>127.6327967125638</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.413425379364228</v>
+        <v>-3.206712689682114</v>
       </c>
     </row>
     <row r="93">
@@ -1740,7 +1740,7 @@
         <v>122.3044679377117</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.572043782566354</v>
+        <v>-3.286021891283177</v>
       </c>
     </row>
     <row r="94">
@@ -1754,7 +1754,7 @@
         <v>117.1399155273312</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.732770029660177</v>
+        <v>-3.366385014830088</v>
       </c>
     </row>
     <row r="95">
@@ -1768,7 +1768,7 @@
         <v>112.1617652916593</v>
       </c>
       <c r="D95" t="n">
-        <v>-6.894777428208952</v>
+        <v>-3.447388714104476</v>
       </c>
     </row>
     <row r="96">
@@ -1782,7 +1782,7 @@
         <v>107.3959413958444</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.056969115347195</v>
+        <v>-3.528484557673598</v>
       </c>
     </row>
     <row r="97">
@@ -1796,7 +1796,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="98">
@@ -1810,7 +1810,7 @@
         <v>98.62310100741442</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.375839186061325</v>
+        <v>-3.687919593030662</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>94.68641529479987</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.528493481274287</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="100">
@@ -1838,7 +1838,7 @@
         <v>91.10237802498555</v>
       </c>
       <c r="D100" t="n">
-        <v>-7.673219546179494</v>
+        <v>-3.836609773089747</v>
       </c>
     </row>
     <row r="101">
@@ -1852,7 +1852,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="102">
@@ -1866,7 +1866,7 @@
         <v>85.16613127743771</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.926200517992883</v>
+        <v>-3.963100258996441</v>
       </c>
     </row>
     <row r="103">
@@ -1880,7 +1880,7 @@
         <v>82.90217434600902</v>
       </c>
       <c r="D103" t="n">
-        <v>-8.027442031693891</v>
+        <v>-4.013721015846945</v>
       </c>
     </row>
     <row r="104">
@@ -1894,7 +1894,7 @@
         <v>81.16277445475738</v>
       </c>
       <c r="D104" t="n">
-        <v>-8.107153662616048</v>
+        <v>-4.053576831308024</v>
       </c>
     </row>
     <row r="105">
@@ -1908,7 +1908,7 @@
         <v>79.98216210167726</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.162252557943521</v>
+        <v>-4.081126278971761</v>
       </c>
     </row>
     <row r="106">
@@ -1922,7 +1922,7 @@
         <v>79.38527195325061</v>
       </c>
       <c r="D106" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="107">
@@ -1936,7 +1936,7 @@
         <v>79.38527195325061</v>
       </c>
       <c r="D107" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="108">
@@ -1950,7 +1950,7 @@
         <v>79.98216210167725</v>
       </c>
       <c r="D108" t="n">
-        <v>-8.162252557943521</v>
+        <v>-4.081126278971761</v>
       </c>
     </row>
     <row r="109">
@@ -1964,7 +1964,7 @@
         <v>81.16277445475738</v>
       </c>
       <c r="D109" t="n">
-        <v>-8.107153662616048</v>
+        <v>-4.053576831308024</v>
       </c>
     </row>
     <row r="110">
@@ -1978,7 +1978,7 @@
         <v>82.90217434600902</v>
       </c>
       <c r="D110" t="n">
-        <v>-8.027442031693891</v>
+        <v>-4.013721015846945</v>
       </c>
     </row>
     <row r="111">
@@ -1992,7 +1992,7 @@
         <v>85.16613127743771</v>
       </c>
       <c r="D111" t="n">
-        <v>-7.926200517992883</v>
+        <v>-3.963100258996441</v>
       </c>
     </row>
     <row r="112">
@@ -2006,7 +2006,7 @@
         <v>87.91412954470317</v>
       </c>
       <c r="D112" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="113">
@@ -2020,7 +2020,7 @@
         <v>91.10237802498555</v>
       </c>
       <c r="D113" t="n">
-        <v>-7.673219546179494</v>
+        <v>-3.836609773089747</v>
       </c>
     </row>
     <row r="114">
@@ -2034,7 +2034,7 @@
         <v>94.68641529479987</v>
       </c>
       <c r="D114" t="n">
-        <v>-7.528493481274287</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="115">
@@ -2048,7 +2048,7 @@
         <v>98.62310100741442</v>
       </c>
       <c r="D115" t="n">
-        <v>-7.375839186061325</v>
+        <v>-3.687919593030662</v>
       </c>
     </row>
     <row r="116">
@@ -2062,7 +2062,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D116" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="117">
@@ -2076,7 +2076,7 @@
         <v>107.3959413958444</v>
       </c>
       <c r="D117" t="n">
-        <v>-7.056969115347195</v>
+        <v>-3.528484557673598</v>
       </c>
     </row>
     <row r="118">
@@ -2090,7 +2090,7 @@
         <v>112.1617652916593</v>
       </c>
       <c r="D118" t="n">
-        <v>-6.894777428208952</v>
+        <v>-3.447388714104476</v>
       </c>
     </row>
     <row r="119">
@@ -2104,7 +2104,7 @@
         <v>117.1399155273312</v>
       </c>
       <c r="D119" t="n">
-        <v>-6.732770029660179</v>
+        <v>-3.366385014830089</v>
       </c>
     </row>
     <row r="120">
@@ -2118,7 +2118,7 @@
         <v>122.3044679377117</v>
       </c>
       <c r="D120" t="n">
-        <v>-6.572043782566354</v>
+        <v>-3.286021891283177</v>
       </c>
     </row>
     <row r="121">
@@ -2132,7 +2132,7 @@
         <v>127.6327967125638</v>
       </c>
       <c r="D121" t="n">
-        <v>-6.413425379364228</v>
+        <v>-3.206712689682114</v>
       </c>
     </row>
     <row r="122">
@@ -2146,7 +2146,7 @@
         <v>123.465612344608</v>
       </c>
       <c r="D122" t="n">
-        <v>-6.536875269040906</v>
+        <v>-3.268437634520453</v>
       </c>
     </row>
     <row r="123">
@@ -2160,7 +2160,7 @@
         <v>117.9491819068074</v>
       </c>
       <c r="D123" t="n">
-        <v>-6.707106398305463</v>
+        <v>-3.353553199152731</v>
       </c>
     </row>
     <row r="124">
@@ -2174,7 +2174,7 @@
         <v>112.5850187401001</v>
       </c>
       <c r="D124" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="125">
@@ -2188,7 +2188,7 @@
         <v>107.3959413958444</v>
       </c>
       <c r="D125" t="n">
-        <v>-7.056969115347195</v>
+        <v>-3.528484557673598</v>
       </c>
     </row>
     <row r="126">
@@ -2202,7 +2202,7 @@
         <v>102.4085683097759</v>
       </c>
       <c r="D126" t="n">
-        <v>-7.234818059890458</v>
+        <v>-3.617409029945229</v>
       </c>
     </row>
     <row r="127">
@@ -2216,7 +2216,7 @@
         <v>97.65380867935377</v>
       </c>
       <c r="D127" t="n">
-        <v>-7.412839933633313</v>
+        <v>-3.706419966816656</v>
       </c>
     </row>
     <row r="128">
@@ -2230,7 +2230,7 @@
         <v>93.16728335245723</v>
       </c>
       <c r="D128" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="129">
@@ -2244,7 +2244,7 @@
         <v>88.98957172802719</v>
       </c>
       <c r="D129" t="n">
-        <v>-7.761282697439376</v>
+        <v>-3.880641348719688</v>
       </c>
     </row>
     <row r="130">
@@ -2258,7 +2258,7 @@
         <v>85.16613127743773</v>
       </c>
       <c r="D130" t="n">
-        <v>-7.926200517992883</v>
+        <v>-3.963100258996441</v>
       </c>
     </row>
     <row r="131">
@@ -2272,7 +2272,7 @@
         <v>81.74668683537723</v>
       </c>
       <c r="D131" t="n">
-        <v>-8.080202733368765</v>
+        <v>-4.040101366684382</v>
       </c>
     </row>
     <row r="132">
@@ -2286,7 +2286,7 @@
         <v>78.78385971583354</v>
       </c>
       <c r="D132" t="n">
-        <v>-8.219027923564111</v>
+        <v>-4.109513961782056</v>
       </c>
     </row>
     <row r="133">
@@ -2300,7 +2300,7 @@
         <v>76.33084007302986</v>
       </c>
       <c r="D133" t="n">
-        <v>-8.338035728513322</v>
+        <v>-4.169017864256661</v>
       </c>
     </row>
     <row r="134">
@@ -2314,7 +2314,7 @@
         <v>74.43804532732037</v>
       </c>
       <c r="D134" t="n">
-        <v>-8.432545670348018</v>
+        <v>-4.216272835174009</v>
       </c>
     </row>
     <row r="135">
@@ -2328,7 +2328,7 @@
         <v>73.14897736412561</v>
       </c>
       <c r="D135" t="n">
-        <v>-8.498315117126994</v>
+        <v>-4.249157558563497</v>
       </c>
     </row>
     <row r="136">
@@ -2342,7 +2342,7 @@
         <v>72.49584841940911</v>
       </c>
       <c r="D136" t="n">
-        <v>-8.532087821702945</v>
+        <v>-4.266043910851472</v>
       </c>
     </row>
     <row r="137">
@@ -2356,7 +2356,7 @@
         <v>72.49584841940911</v>
       </c>
       <c r="D137" t="n">
-        <v>-8.532087821702945</v>
+        <v>-4.266043910851472</v>
       </c>
     </row>
     <row r="138">
@@ -2370,7 +2370,7 @@
         <v>73.14897736412561</v>
       </c>
       <c r="D138" t="n">
-        <v>-8.498315117126994</v>
+        <v>-4.249157558563497</v>
       </c>
     </row>
     <row r="139">
@@ -2384,7 +2384,7 @@
         <v>74.43804532732037</v>
       </c>
       <c r="D139" t="n">
-        <v>-8.432545670348018</v>
+        <v>-4.216272835174009</v>
       </c>
     </row>
     <row r="140">
@@ -2398,7 +2398,7 @@
         <v>76.33084007302985</v>
       </c>
       <c r="D140" t="n">
-        <v>-8.338035728513322</v>
+        <v>-4.169017864256661</v>
       </c>
     </row>
     <row r="141">
@@ -2412,7 +2412,7 @@
         <v>78.78385971583354</v>
       </c>
       <c r="D141" t="n">
-        <v>-8.219027923564111</v>
+        <v>-4.109513961782056</v>
       </c>
     </row>
     <row r="142">
@@ -2426,7 +2426,7 @@
         <v>81.74668683537723</v>
       </c>
       <c r="D142" t="n">
-        <v>-8.080202733368765</v>
+        <v>-4.040101366684382</v>
       </c>
     </row>
     <row r="143">
@@ -2440,7 +2440,7 @@
         <v>85.16613127743771</v>
       </c>
       <c r="D143" t="n">
-        <v>-7.926200517992883</v>
+        <v>-3.963100258996441</v>
       </c>
     </row>
     <row r="144">
@@ -2454,7 +2454,7 @@
         <v>88.98957172802717</v>
       </c>
       <c r="D144" t="n">
-        <v>-7.761282697439376</v>
+        <v>-3.880641348719688</v>
       </c>
     </row>
     <row r="145">
@@ -2468,7 +2468,7 @@
         <v>93.16728335245723</v>
       </c>
       <c r="D145" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="146">
@@ -2482,7 +2482,7 @@
         <v>97.65380867935377</v>
       </c>
       <c r="D146" t="n">
-        <v>-7.412839933633313</v>
+        <v>-3.706419966816656</v>
       </c>
     </row>
     <row r="147">
@@ -2496,7 +2496,7 @@
         <v>102.4085683097758</v>
       </c>
       <c r="D147" t="n">
-        <v>-7.234818059890458</v>
+        <v>-3.617409029945229</v>
       </c>
     </row>
     <row r="148">
@@ -2510,7 +2510,7 @@
         <v>107.3959413958444</v>
       </c>
       <c r="D148" t="n">
-        <v>-7.056969115347195</v>
+        <v>-3.528484557673598</v>
       </c>
     </row>
     <row r="149">
@@ -2524,7 +2524,7 @@
         <v>112.5850187401001</v>
       </c>
       <c r="D149" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="150">
@@ -2538,7 +2538,7 @@
         <v>117.9491819068074</v>
       </c>
       <c r="D150" t="n">
-        <v>-6.707106398305463</v>
+        <v>-3.353553199152731</v>
       </c>
     </row>
     <row r="151">
@@ -2552,7 +2552,7 @@
         <v>123.465612344608</v>
       </c>
       <c r="D151" t="n">
-        <v>-6.536875269040906</v>
+        <v>-3.268437634520453</v>
       </c>
     </row>
     <row r="152">
@@ -2566,7 +2566,7 @@
         <v>119.5512815404118</v>
       </c>
       <c r="D152" t="n">
-        <v>-6.656832586043303</v>
+        <v>-3.328416293021652</v>
       </c>
     </row>
     <row r="153">
@@ -2580,7 +2580,7 @@
         <v>113.8453380635805</v>
       </c>
       <c r="D153" t="n">
-        <v>-6.839172076491775</v>
+        <v>-3.419586038245888</v>
       </c>
     </row>
     <row r="154">
@@ -2594,7 +2594,7 @@
         <v>108.2780584007419</v>
       </c>
       <c r="D154" t="n">
-        <v>-7.026397429019736</v>
+        <v>-3.513198714509868</v>
       </c>
     </row>
     <row r="155">
@@ -2608,7 +2608,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D155" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="156">
@@ -2622,7 +2622,7 @@
         <v>97.65380867935377</v>
       </c>
       <c r="D156" t="n">
-        <v>-7.412839933633313</v>
+        <v>-3.706419966816656</v>
       </c>
     </row>
     <row r="157">
@@ -2636,7 +2636,7 @@
         <v>92.65537132789244</v>
       </c>
       <c r="D157" t="n">
-        <v>-7.609807658140612</v>
+        <v>-3.804903829070306</v>
       </c>
     </row>
     <row r="158">
@@ -2650,7 +2650,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D158" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="159">
@@ -2664,7 +2664,7 @@
         <v>83.47392025455314</v>
       </c>
       <c r="D159" t="n">
-        <v>-8.00161129387774</v>
+        <v>-4.00080564693887</v>
       </c>
     </row>
     <row r="160">
@@ -2678,7 +2678,7 @@
         <v>79.38527195325061</v>
       </c>
       <c r="D160" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="161">
@@ -2692,7 +2692,7 @@
         <v>75.70516689689707</v>
       </c>
       <c r="D161" t="n">
-        <v>-8.369011111196038</v>
+        <v>-4.184505555598019</v>
       </c>
     </row>
     <row r="162">
@@ -2706,7 +2706,7 @@
         <v>72.4958484194091</v>
       </c>
       <c r="D162" t="n">
-        <v>-8.532087821702946</v>
+        <v>-4.266043910851473</v>
       </c>
     </row>
     <row r="163">
@@ -2720,7 +2720,7 @@
         <v>69.82226459074685</v>
       </c>
       <c r="D163" t="n">
-        <v>-8.673624141936386</v>
+        <v>-4.336812070968193</v>
       </c>
     </row>
     <row r="164">
@@ -2734,7 +2734,7 @@
         <v>67.74787139444311</v>
       </c>
       <c r="D164" t="n">
-        <v>-8.787270271016753</v>
+        <v>-4.393635135508377</v>
       </c>
     </row>
     <row r="165">
@@ -2748,7 +2748,7 @@
         <v>66.3289105574874</v>
       </c>
       <c r="D165" t="n">
-        <v>-8.86705328159962</v>
+        <v>-4.43352664079981</v>
       </c>
     </row>
     <row r="166">
@@ -2762,7 +2762,7 @@
         <v>65.60792272565672</v>
       </c>
       <c r="D166" t="n">
-        <v>-8.908255166975122</v>
+        <v>-4.454127583487561</v>
       </c>
     </row>
     <row r="167">
@@ -2776,7 +2776,7 @@
         <v>65.60792272565672</v>
       </c>
       <c r="D167" t="n">
-        <v>-8.908255166975122</v>
+        <v>-4.454127583487561</v>
       </c>
     </row>
     <row r="168">
@@ -2790,7 +2790,7 @@
         <v>66.32891055748739</v>
       </c>
       <c r="D168" t="n">
-        <v>-8.867053281599622</v>
+        <v>-4.433526640799811</v>
       </c>
     </row>
     <row r="169">
@@ -2804,7 +2804,7 @@
         <v>67.74787139444311</v>
       </c>
       <c r="D169" t="n">
-        <v>-8.787270271016753</v>
+        <v>-4.393635135508377</v>
       </c>
     </row>
     <row r="170">
@@ -2818,7 +2818,7 @@
         <v>69.82226459074685</v>
       </c>
       <c r="D170" t="n">
-        <v>-8.673624141936386</v>
+        <v>-4.336812070968193</v>
       </c>
     </row>
     <row r="171">
@@ -2832,7 +2832,7 @@
         <v>72.49584841940909</v>
       </c>
       <c r="D171" t="n">
-        <v>-8.532087821702946</v>
+        <v>-4.266043910851473</v>
       </c>
     </row>
     <row r="172">
@@ -2846,7 +2846,7 @@
         <v>75.70516689689705</v>
       </c>
       <c r="D172" t="n">
-        <v>-8.369011111196038</v>
+        <v>-4.184505555598019</v>
       </c>
     </row>
     <row r="173">
@@ -2860,7 +2860,7 @@
         <v>79.38527195325061</v>
       </c>
       <c r="D173" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="174">
@@ -2874,7 +2874,7 @@
         <v>83.47392025455314</v>
       </c>
       <c r="D174" t="n">
-        <v>-8.00161129387774</v>
+        <v>-4.00080564693887</v>
       </c>
     </row>
     <row r="175">
@@ -2888,7 +2888,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D175" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="176">
@@ -2902,7 +2902,7 @@
         <v>92.65537132789244</v>
       </c>
       <c r="D176" t="n">
-        <v>-7.609807658140612</v>
+        <v>-3.804903829070306</v>
       </c>
     </row>
     <row r="177">
@@ -2916,7 +2916,7 @@
         <v>97.65380867935374</v>
       </c>
       <c r="D177" t="n">
-        <v>-7.412839933633315</v>
+        <v>-3.706419966816657</v>
       </c>
     </row>
     <row r="178">
@@ -2930,7 +2930,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D178" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="179">
@@ -2944,7 +2944,7 @@
         <v>108.2780584007419</v>
       </c>
       <c r="D179" t="n">
-        <v>-7.026397429019736</v>
+        <v>-3.513198714509868</v>
       </c>
     </row>
     <row r="180">
@@ -2958,7 +2958,7 @@
         <v>113.8453380635805</v>
       </c>
       <c r="D180" t="n">
-        <v>-6.839172076491775</v>
+        <v>-3.419586038245888</v>
       </c>
     </row>
     <row r="181">
@@ -2972,7 +2972,7 @@
         <v>119.5512815404118</v>
       </c>
       <c r="D181" t="n">
-        <v>-6.656832586043303</v>
+        <v>-3.328416293021652</v>
       </c>
     </row>
     <row r="182">
@@ -2986,7 +2986,7 @@
         <v>115.9154228549766</v>
       </c>
       <c r="D182" t="n">
-        <v>-6.771951579829506</v>
+        <v>-3.385975789914753</v>
       </c>
     </row>
     <row r="183">
@@ -3000,7 +3000,7 @@
         <v>110.0210767830608</v>
       </c>
       <c r="D183" t="n">
-        <v>-6.966735045164554</v>
+        <v>-3.483367522582277</v>
       </c>
     </row>
     <row r="184">
@@ -3014,7 +3014,7 @@
         <v>104.2497686746964</v>
       </c>
       <c r="D184" t="n">
-        <v>-7.168146525526846</v>
+        <v>-3.584073262763423</v>
       </c>
     </row>
     <row r="185">
@@ -3028,7 +3028,7 @@
         <v>98.62310100741442</v>
       </c>
       <c r="D185" t="n">
-        <v>-7.375839186061325</v>
+        <v>-3.687919593030662</v>
       </c>
     </row>
     <row r="186">
@@ -3042,7 +3042,7 @@
         <v>93.16728335245723</v>
       </c>
       <c r="D186" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="187">
@@ -3056,7 +3056,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D187" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="188">
@@ -3070,7 +3070,7 @@
         <v>82.90217434600902</v>
       </c>
       <c r="D188" t="n">
-        <v>-8.027442031693891</v>
+        <v>-4.013721015846945</v>
       </c>
     </row>
     <row r="189">
@@ -3084,7 +3084,7 @@
         <v>78.17782102589402</v>
       </c>
       <c r="D189" t="n">
-        <v>-8.248076528949818</v>
+        <v>-4.124038264474909</v>
       </c>
     </row>
     <row r="190">
@@ -3098,7 +3098,7 @@
         <v>73.79632606562998</v>
       </c>
       <c r="D190" t="n">
-        <v>-8.465141314405509</v>
+        <v>-4.232570657202754</v>
       </c>
     </row>
     <row r="191">
@@ -3112,7 +3112,7 @@
         <v>69.82226459074685</v>
       </c>
       <c r="D191" t="n">
-        <v>-8.673624141936386</v>
+        <v>-4.336812070968193</v>
       </c>
     </row>
     <row r="192">
@@ -3126,7 +3126,7 @@
         <v>66.3289105574874</v>
       </c>
       <c r="D192" t="n">
-        <v>-8.86705328159962</v>
+        <v>-4.43352664079981</v>
       </c>
     </row>
     <row r="193">
@@ -3140,7 +3140,7 @@
         <v>63.39578038224219</v>
       </c>
       <c r="D193" t="n">
-        <v>-9.037586415665334</v>
+        <v>-4.518793207832667</v>
       </c>
     </row>
     <row r="194">
@@ -3154,7 +3154,7 @@
         <v>61.10360395403224</v>
       </c>
       <c r="D194" t="n">
-        <v>-9.176494501769822</v>
+        <v>-4.588247250884911</v>
       </c>
     </row>
     <row r="195">
@@ -3168,7 +3168,7 @@
         <v>59.526470695283</v>
       </c>
       <c r="D195" t="n">
-        <v>-9.275158253727076</v>
+        <v>-4.637579126863538</v>
       </c>
     </row>
     <row r="196">
@@ -3182,7 +3182,7 @@
         <v>58.72202195147035</v>
       </c>
       <c r="D196" t="n">
-        <v>-9.32650382669563</v>
+        <v>-4.663251913347815</v>
       </c>
     </row>
     <row r="197">
@@ -3196,7 +3196,7 @@
         <v>58.72202195147035</v>
       </c>
       <c r="D197" t="n">
-        <v>-9.32650382669563</v>
+        <v>-4.663251913347815</v>
       </c>
     </row>
     <row r="198">
@@ -3210,7 +3210,7 @@
         <v>59.526470695283</v>
       </c>
       <c r="D198" t="n">
-        <v>-9.275158253727076</v>
+        <v>-4.637579126863538</v>
       </c>
     </row>
     <row r="199">
@@ -3224,7 +3224,7 @@
         <v>61.10360395403224</v>
       </c>
       <c r="D199" t="n">
-        <v>-9.176494501769822</v>
+        <v>-4.588247250884911</v>
       </c>
     </row>
     <row r="200">
@@ -3238,7 +3238,7 @@
         <v>63.39578038224219</v>
       </c>
       <c r="D200" t="n">
-        <v>-9.037586415665334</v>
+        <v>-4.518793207832667</v>
       </c>
     </row>
     <row r="201">
@@ -3252,7 +3252,7 @@
         <v>66.32891055748739</v>
       </c>
       <c r="D201" t="n">
-        <v>-8.867053281599622</v>
+        <v>-4.433526640799811</v>
       </c>
     </row>
     <row r="202">
@@ -3266,7 +3266,7 @@
         <v>69.82226459074684</v>
       </c>
       <c r="D202" t="n">
-        <v>-8.673624141936388</v>
+        <v>-4.336812070968194</v>
       </c>
     </row>
     <row r="203">
@@ -3280,7 +3280,7 @@
         <v>73.79632606562998</v>
       </c>
       <c r="D203" t="n">
-        <v>-8.465141314405509</v>
+        <v>-4.232570657202754</v>
       </c>
     </row>
     <row r="204">
@@ -3294,7 +3294,7 @@
         <v>78.17782102589402</v>
       </c>
       <c r="D204" t="n">
-        <v>-8.248076528949818</v>
+        <v>-4.124038264474909</v>
       </c>
     </row>
     <row r="205">
@@ -3308,7 +3308,7 @@
         <v>82.90217434600902</v>
       </c>
       <c r="D205" t="n">
-        <v>-8.027442031693891</v>
+        <v>-4.013721015846945</v>
       </c>
     </row>
     <row r="206">
@@ -3322,7 +3322,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D206" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="207">
@@ -3336,7 +3336,7 @@
         <v>93.1672833524572</v>
       </c>
       <c r="D207" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="208">
@@ -3350,7 +3350,7 @@
         <v>98.62310100741442</v>
       </c>
       <c r="D208" t="n">
-        <v>-7.375839186061325</v>
+        <v>-3.687919593030662</v>
       </c>
     </row>
     <row r="209">
@@ -3364,7 +3364,7 @@
         <v>104.2497686746964</v>
       </c>
       <c r="D209" t="n">
-        <v>-7.168146525526846</v>
+        <v>-3.584073262763423</v>
       </c>
     </row>
     <row r="210">
@@ -3378,7 +3378,7 @@
         <v>110.0210767830608</v>
       </c>
       <c r="D210" t="n">
-        <v>-6.966735045164554</v>
+        <v>-3.483367522582277</v>
       </c>
     </row>
     <row r="211">
@@ -3392,7 +3392,7 @@
         <v>115.9154228549766</v>
       </c>
       <c r="D211" t="n">
-        <v>-6.771951579829506</v>
+        <v>-3.385975789914753</v>
       </c>
     </row>
     <row r="212">
@@ -3406,7 +3406,7 @@
         <v>112.5850187401001</v>
       </c>
       <c r="D212" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="213">
@@ -3420,7 +3420,7 @@
         <v>106.5065186998655</v>
       </c>
       <c r="D213" t="n">
-        <v>-7.088056333958468</v>
+        <v>-3.544028166979234</v>
       </c>
     </row>
     <row r="214">
@@ -3434,7 +3434,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D214" t="n">
-        <v>-7.303985085654316</v>
+        <v>-3.651992542827158</v>
       </c>
     </row>
     <row r="215">
@@ -3448,7 +3448,7 @@
         <v>94.68641529479987</v>
       </c>
       <c r="D215" t="n">
-        <v>-7.528493481274287</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="216">
@@ -3462,7 +3462,7 @@
         <v>88.98957172802719</v>
       </c>
       <c r="D216" t="n">
-        <v>-7.761282697439376</v>
+        <v>-3.880641348719688</v>
       </c>
     </row>
     <row r="217">
@@ -3476,7 +3476,7 @@
         <v>83.47392025455314</v>
       </c>
       <c r="D217" t="n">
-        <v>-8.00161129387774</v>
+        <v>-4.00080564693887</v>
       </c>
     </row>
     <row r="218">
@@ -3490,7 +3490,7 @@
         <v>78.17782102589402</v>
       </c>
       <c r="D218" t="n">
-        <v>-8.248076528949818</v>
+        <v>-4.124038264474909</v>
       </c>
     </row>
     <row r="219">
@@ -3504,7 +3504,7 @@
         <v>73.14897736412561</v>
       </c>
       <c r="D219" t="n">
-        <v>-8.498315117126994</v>
+        <v>-4.249157558563497</v>
       </c>
     </row>
     <row r="220">
@@ -3518,7 +3518,7 @@
         <v>68.44632152165245</v>
       </c>
       <c r="D220" t="n">
-        <v>-8.748617204330396</v>
+        <v>-4.374308602165198</v>
       </c>
     </row>
     <row r="221">
@@ -3532,7 +3532,7 @@
         <v>64.14163875082164</v>
       </c>
       <c r="D221" t="n">
-        <v>-8.99347793170835</v>
+        <v>-4.496738965854175</v>
       </c>
     </row>
     <row r="222">
@@ -3546,7 +3546,7 @@
         <v>60.32019201564104</v>
       </c>
       <c r="D222" t="n">
-        <v>-9.225178650194977</v>
+        <v>-4.612589325097488</v>
       </c>
     </row>
     <row r="223">
@@ -3560,7 +3560,7 @@
         <v>57.07912192154086</v>
       </c>
       <c r="D223" t="n">
-        <v>-9.433605213626109</v>
+        <v>-4.716802606813054</v>
       </c>
     </row>
     <row r="224">
@@ -3574,7 +3574,7 @@
         <v>54.52202862359275</v>
       </c>
       <c r="D224" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="225">
@@ -3588,7 +3588,7 @@
         <v>52.74847772682191</v>
       </c>
       <c r="D225" t="n">
-        <v>-9.731531497916587</v>
+        <v>-4.865765748958293</v>
       </c>
     </row>
     <row r="226">
@@ -3602,7 +3602,7 @@
         <v>51.8389530288721</v>
       </c>
       <c r="D226" t="n">
-        <v>-9.797226596870965</v>
+        <v>-4.898613298435483</v>
       </c>
     </row>
     <row r="227">
@@ -3616,7 +3616,7 @@
         <v>51.8389530288721</v>
       </c>
       <c r="D227" t="n">
-        <v>-9.797226596870965</v>
+        <v>-4.898613298435483</v>
       </c>
     </row>
     <row r="228">
@@ -3630,7 +3630,7 @@
         <v>52.74847772682191</v>
       </c>
       <c r="D228" t="n">
-        <v>-9.731531497916587</v>
+        <v>-4.865765748958293</v>
       </c>
     </row>
     <row r="229">
@@ -3644,7 +3644,7 @@
         <v>54.52202862359275</v>
       </c>
       <c r="D229" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="230">
@@ -3658,7 +3658,7 @@
         <v>57.07912192154085</v>
       </c>
       <c r="D230" t="n">
-        <v>-9.433605213626109</v>
+        <v>-4.716802606813054</v>
       </c>
     </row>
     <row r="231">
@@ -3672,7 +3672,7 @@
         <v>60.32019201564103</v>
       </c>
       <c r="D231" t="n">
-        <v>-9.225178650194977</v>
+        <v>-4.612589325097488</v>
       </c>
     </row>
     <row r="232">
@@ -3686,7 +3686,7 @@
         <v>64.14163875082163</v>
       </c>
       <c r="D232" t="n">
-        <v>-8.993477931708352</v>
+        <v>-4.496738965854176</v>
       </c>
     </row>
     <row r="233">
@@ -3700,7 +3700,7 @@
         <v>68.44632152165244</v>
       </c>
       <c r="D233" t="n">
-        <v>-8.748617204330396</v>
+        <v>-4.374308602165198</v>
       </c>
     </row>
     <row r="234">
@@ -3714,7 +3714,7 @@
         <v>73.1489773641256</v>
       </c>
       <c r="D234" t="n">
-        <v>-8.498315117126994</v>
+        <v>-4.249157558563497</v>
       </c>
     </row>
     <row r="235">
@@ -3728,7 +3728,7 @@
         <v>78.17782102589402</v>
       </c>
       <c r="D235" t="n">
-        <v>-8.248076528949818</v>
+        <v>-4.124038264474909</v>
       </c>
     </row>
     <row r="236">
@@ -3742,7 +3742,7 @@
         <v>83.47392025455314</v>
       </c>
       <c r="D236" t="n">
-        <v>-8.00161129387774</v>
+        <v>-4.00080564693887</v>
       </c>
     </row>
     <row r="237">
@@ -3756,7 +3756,7 @@
         <v>88.98957172802716</v>
       </c>
       <c r="D237" t="n">
-        <v>-7.761282697439378</v>
+        <v>-3.880641348719689</v>
       </c>
     </row>
     <row r="238">
@@ -3770,7 +3770,7 @@
         <v>94.68641529479986</v>
       </c>
       <c r="D238" t="n">
-        <v>-7.528493481274289</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="239">
@@ -3784,7 +3784,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D239" t="n">
-        <v>-7.303985085654318</v>
+        <v>-3.651992542827159</v>
       </c>
     </row>
     <row r="240">
@@ -3798,7 +3798,7 @@
         <v>106.5065186998655</v>
       </c>
       <c r="D240" t="n">
-        <v>-7.088056333958468</v>
+        <v>-3.544028166979234</v>
       </c>
     </row>
     <row r="241">
@@ -3812,7 +3812,7 @@
         <v>112.5850187401001</v>
       </c>
       <c r="D241" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="242">
@@ -3826,7 +3826,7 @@
         <v>109.58792125566</v>
       </c>
       <c r="D242" t="n">
-        <v>-6.981470428803291</v>
+        <v>-3.490735214401646</v>
       </c>
     </row>
     <row r="243">
@@ -3840,7 +3840,7 @@
         <v>103.333269405322</v>
       </c>
       <c r="D243" t="n">
-        <v>-7.201181524244215</v>
+        <v>-3.600590762122108</v>
       </c>
     </row>
     <row r="244">
@@ -3854,7 +3854,7 @@
         <v>97.16553657658876</v>
       </c>
       <c r="D244" t="n">
-        <v>-7.431621239967675</v>
+        <v>-3.715810619983837</v>
       </c>
     </row>
     <row r="245">
@@ -3868,7 +3868,7 @@
         <v>91.10237802498555</v>
       </c>
       <c r="D245" t="n">
-        <v>-7.673219546179494</v>
+        <v>-3.836609773089747</v>
       </c>
     </row>
     <row r="246">
@@ -3882,7 +3882,7 @@
         <v>85.16613127743773</v>
       </c>
       <c r="D246" t="n">
-        <v>-7.926200517992883</v>
+        <v>-3.963100258996441</v>
       </c>
     </row>
     <row r="247">
@@ -3896,7 +3896,7 @@
         <v>79.38527195325061</v>
       </c>
       <c r="D247" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="248">
@@ -3910,7 +3910,7 @@
         <v>73.79632606562998</v>
       </c>
       <c r="D248" t="n">
-        <v>-8.465141314405509</v>
+        <v>-4.232570657202754</v>
       </c>
     </row>
     <row r="249">
@@ -3924,7 +3924,7 @@
         <v>68.44632152165245</v>
       </c>
       <c r="D249" t="n">
-        <v>-8.748617204330396</v>
+        <v>-4.374308602165198</v>
       </c>
     </row>
     <row r="250">
@@ -3938,7 +3938,7 @@
         <v>63.39578038224219</v>
       </c>
       <c r="D250" t="n">
-        <v>-9.037586415665334</v>
+        <v>-4.518793207832667</v>
       </c>
     </row>
     <row r="251">
@@ -3952,7 +3952,7 @@
         <v>58.72202195147036</v>
       </c>
       <c r="D251" t="n">
-        <v>-9.326503826695628</v>
+        <v>-4.663251913347814</v>
       </c>
     </row>
     <row r="252">
@@ -3966,7 +3966,7 @@
         <v>54.52202862359275</v>
       </c>
       <c r="D252" t="n">
-        <v>-9.606644693977925</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="253">
@@ -3980,7 +3980,7 @@
         <v>50.91318296632208</v>
       </c>
       <c r="D253" t="n">
-        <v>-9.865297299345757</v>
+        <v>-4.932648649672879</v>
       </c>
     </row>
     <row r="254">
@@ -3994,7 +3994,7 @@
         <v>48.02892509373834</v>
       </c>
       <c r="D254" t="n">
-        <v>-10.08564668705603</v>
+        <v>-5.042823343528013</v>
       </c>
     </row>
     <row r="255">
@@ -4008,7 +4008,7 @@
         <v>46.00573815215977</v>
       </c>
       <c r="D255" t="n">
-        <v>-10.24830383264385</v>
+        <v>-5.124151916321925</v>
       </c>
     </row>
     <row r="256">
@@ -4022,7 +4022,7 @@
         <v>44.96001658760448</v>
       </c>
       <c r="D256" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="257">
@@ -4036,7 +4036,7 @@
         <v>44.96001658760448</v>
       </c>
       <c r="D257" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="258">
@@ -4050,7 +4050,7 @@
         <v>46.00573815215977</v>
       </c>
       <c r="D258" t="n">
-        <v>-10.24830383264385</v>
+        <v>-5.124151916321925</v>
       </c>
     </row>
     <row r="259">
@@ -4064,7 +4064,7 @@
         <v>48.02892509373834</v>
       </c>
       <c r="D259" t="n">
-        <v>-10.08564668705603</v>
+        <v>-5.042823343528013</v>
       </c>
     </row>
     <row r="260">
@@ -4078,7 +4078,7 @@
         <v>50.91318296632207</v>
       </c>
       <c r="D260" t="n">
-        <v>-9.865297299345757</v>
+        <v>-4.932648649672879</v>
       </c>
     </row>
     <row r="261">
@@ -4092,7 +4092,7 @@
         <v>54.52202862359274</v>
       </c>
       <c r="D261" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="262">
@@ -4106,7 +4106,7 @@
         <v>58.72202195147034</v>
       </c>
       <c r="D262" t="n">
-        <v>-9.32650382669563</v>
+        <v>-4.663251913347815</v>
       </c>
     </row>
     <row r="263">
@@ -4120,7 +4120,7 @@
         <v>63.39578038224219</v>
       </c>
       <c r="D263" t="n">
-        <v>-9.037586415665334</v>
+        <v>-4.518793207832667</v>
       </c>
     </row>
     <row r="264">
@@ -4134,7 +4134,7 @@
         <v>68.44632152165244</v>
       </c>
       <c r="D264" t="n">
-        <v>-8.748617204330396</v>
+        <v>-4.374308602165198</v>
       </c>
     </row>
     <row r="265">
@@ -4148,7 +4148,7 @@
         <v>73.79632606562998</v>
       </c>
       <c r="D265" t="n">
-        <v>-8.465141314405509</v>
+        <v>-4.232570657202754</v>
       </c>
     </row>
     <row r="266">
@@ -4162,7 +4162,7 @@
         <v>79.38527195325061</v>
       </c>
       <c r="D266" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="267">
@@ -4176,7 +4176,7 @@
         <v>85.1661312774377</v>
       </c>
       <c r="D267" t="n">
-        <v>-7.926200517992885</v>
+        <v>-3.963100258996442</v>
       </c>
     </row>
     <row r="268">
@@ -4190,7 +4190,7 @@
         <v>91.10237802498555</v>
       </c>
       <c r="D268" t="n">
-        <v>-7.673219546179494</v>
+        <v>-3.836609773089747</v>
       </c>
     </row>
     <row r="269">
@@ -4204,7 +4204,7 @@
         <v>97.16553657658876</v>
       </c>
       <c r="D269" t="n">
-        <v>-7.431621239967675</v>
+        <v>-3.715810619983837</v>
       </c>
     </row>
     <row r="270">
@@ -4218,7 +4218,7 @@
         <v>103.333269405322</v>
       </c>
       <c r="D270" t="n">
-        <v>-7.201181524244215</v>
+        <v>-3.600590762122108</v>
       </c>
     </row>
     <row r="271">
@@ -4232,7 +4232,7 @@
         <v>109.58792125566</v>
       </c>
       <c r="D271" t="n">
-        <v>-6.981470428803291</v>
+        <v>-3.490735214401646</v>
       </c>
     </row>
     <row r="272">
@@ -4246,7 +4246,7 @@
         <v>106.9521546156608</v>
       </c>
       <c r="D272" t="n">
-        <v>-7.072447213416867</v>
+        <v>-3.536223606708433</v>
       </c>
     </row>
     <row r="273">
@@ -4260,7 +4260,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D273" t="n">
-        <v>-7.303985085654318</v>
+        <v>-3.651992542827159</v>
       </c>
     </row>
     <row r="274">
@@ -4274,7 +4274,7 @@
         <v>94.18276057757009</v>
       </c>
       <c r="D274" t="n">
-        <v>-7.548490395996804</v>
+        <v>-3.774245197998402</v>
       </c>
     </row>
     <row r="275">
@@ -4288,7 +4288,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D275" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="276">
@@ -4302,7 +4302,7 @@
         <v>81.74668683537723</v>
       </c>
       <c r="D276" t="n">
-        <v>-8.080202733368765</v>
+        <v>-4.040101366684382</v>
       </c>
     </row>
     <row r="277">
@@ -4316,7 +4316,7 @@
         <v>75.70516689689707</v>
       </c>
       <c r="D277" t="n">
-        <v>-8.369011111196038</v>
+        <v>-4.184505555598019</v>
       </c>
     </row>
     <row r="278">
@@ -4330,7 +4330,7 @@
         <v>69.82226459074685</v>
       </c>
       <c r="D278" t="n">
-        <v>-8.673624141936386</v>
+        <v>-4.336812070968193</v>
       </c>
     </row>
     <row r="279">
@@ -4344,7 +4344,7 @@
         <v>64.14163875082164</v>
       </c>
       <c r="D279" t="n">
-        <v>-8.99347793170835</v>
+        <v>-4.496738965854175</v>
       </c>
     </row>
     <row r="280">
@@ -4358,7 +4358,7 @@
         <v>58.72202195147036</v>
       </c>
       <c r="D280" t="n">
-        <v>-9.326503826695628</v>
+        <v>-4.663251913347814</v>
       </c>
     </row>
     <row r="281">
@@ -4372,7 +4372,7 @@
         <v>53.64258340035879</v>
       </c>
       <c r="D281" t="n">
-        <v>-9.668052250498436</v>
+        <v>-4.834026125249218</v>
       </c>
     </row>
     <row r="282">
@@ -4386,7 +4386,7 @@
         <v>49.00920828811</v>
       </c>
       <c r="D282" t="n">
-        <v>-10.00929692887849</v>
+        <v>-5.004648464439247</v>
       </c>
     </row>
     <row r="283">
@@ -4400,7 +4400,7 @@
         <v>44.96001658760448</v>
       </c>
       <c r="D283" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="284">
@@ -4414,7 +4414,7 @@
         <v>41.66567577101577</v>
       </c>
       <c r="D284" t="n">
-        <v>-10.62293272671636</v>
+        <v>-5.311466363358178</v>
       </c>
     </row>
     <row r="285">
@@ -4428,7 +4428,7 @@
         <v>39.3163939689358</v>
       </c>
       <c r="D285" t="n">
-        <v>-10.84242615947277</v>
+        <v>-5.421213079736386</v>
       </c>
     </row>
     <row r="286">
@@ -4442,7 +4442,7 @@
         <v>38.08745178340435</v>
       </c>
       <c r="D286" t="n">
-        <v>-10.96255074536656</v>
+        <v>-5.481275372683282</v>
       </c>
     </row>
     <row r="287">
@@ -4456,7 +4456,7 @@
         <v>38.08745178340435</v>
       </c>
       <c r="D287" t="n">
-        <v>-10.96255074536656</v>
+        <v>-5.481275372683282</v>
       </c>
     </row>
     <row r="288">
@@ -4470,7 +4470,7 @@
         <v>39.3163939689358</v>
       </c>
       <c r="D288" t="n">
-        <v>-10.84242615947277</v>
+        <v>-5.421213079736386</v>
       </c>
     </row>
     <row r="289">
@@ -4484,7 +4484,7 @@
         <v>41.66567577101577</v>
       </c>
       <c r="D289" t="n">
-        <v>-10.62293272671636</v>
+        <v>-5.311466363358178</v>
       </c>
     </row>
     <row r="290">
@@ -4498,7 +4498,7 @@
         <v>44.96001658760447</v>
       </c>
       <c r="D290" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="291">
@@ -4512,7 +4512,7 @@
         <v>49.00920828810997</v>
       </c>
       <c r="D291" t="n">
-        <v>-10.00929692887849</v>
+        <v>-5.004648464439247</v>
       </c>
     </row>
     <row r="292">
@@ -4526,7 +4526,7 @@
         <v>53.64258340035877</v>
       </c>
       <c r="D292" t="n">
-        <v>-9.668052250498436</v>
+        <v>-4.834026125249218</v>
       </c>
     </row>
     <row r="293">
@@ -4540,7 +4540,7 @@
         <v>58.72202195147034</v>
       </c>
       <c r="D293" t="n">
-        <v>-9.32650382669563</v>
+        <v>-4.663251913347815</v>
       </c>
     </row>
     <row r="294">
@@ -4554,7 +4554,7 @@
         <v>64.14163875082164</v>
       </c>
       <c r="D294" t="n">
-        <v>-8.99347793170835</v>
+        <v>-4.496738965854175</v>
       </c>
     </row>
     <row r="295">
@@ -4568,7 +4568,7 @@
         <v>69.82226459074685</v>
       </c>
       <c r="D295" t="n">
-        <v>-8.673624141936386</v>
+        <v>-4.336812070968193</v>
       </c>
     </row>
     <row r="296">
@@ -4582,7 +4582,7 @@
         <v>75.70516689689707</v>
       </c>
       <c r="D296" t="n">
-        <v>-8.369011111196038</v>
+        <v>-4.184505555598019</v>
       </c>
     </row>
     <row r="297">
@@ -4596,7 +4596,7 @@
         <v>81.74668683537722</v>
       </c>
       <c r="D297" t="n">
-        <v>-8.080202733368765</v>
+        <v>-4.040101366684382</v>
       </c>
     </row>
     <row r="298">
@@ -4610,7 +4610,7 @@
         <v>87.91412954470317</v>
       </c>
       <c r="D298" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="299">
@@ -4624,7 +4624,7 @@
         <v>94.18276057757008</v>
       </c>
       <c r="D299" t="n">
-        <v>-7.548490395996806</v>
+        <v>-3.774245197998403</v>
       </c>
     </row>
     <row r="300">
@@ -4638,7 +4638,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D300" t="n">
-        <v>-7.303985085654318</v>
+        <v>-3.651992542827159</v>
       </c>
     </row>
     <row r="301">
@@ -4652,7 +4652,7 @@
         <v>106.9521546156608</v>
       </c>
       <c r="D301" t="n">
-        <v>-7.072447213416867</v>
+        <v>-3.536223606708433</v>
       </c>
     </row>
     <row r="302">
@@ -4666,7 +4666,7 @@
         <v>104.7050100047516</v>
       </c>
       <c r="D302" t="n">
-        <v>-7.151848034620062</v>
+        <v>-3.575924017310031</v>
       </c>
     </row>
     <row r="303">
@@ -4680,7 +4680,7 @@
         <v>98.13965152246693</v>
       </c>
       <c r="D303" t="n">
-        <v>-7.39424715098176</v>
+        <v>-3.69712357549088</v>
       </c>
     </row>
     <row r="304">
@@ -4694,7 +4694,7 @@
         <v>91.62296727990638</v>
       </c>
       <c r="D304" t="n">
-        <v>-7.651840771095009</v>
+        <v>-3.825920385547505</v>
       </c>
     </row>
     <row r="305">
@@ -4708,7 +4708,7 @@
         <v>85.16613127743771</v>
       </c>
       <c r="D305" t="n">
-        <v>-7.926200517992883</v>
+        <v>-3.963100258996441</v>
       </c>
     </row>
     <row r="306">
@@ -4722,7 +4722,7 @@
         <v>78.78385971583354</v>
       </c>
       <c r="D306" t="n">
-        <v>-8.219027923564111</v>
+        <v>-4.109513961782056</v>
       </c>
     </row>
     <row r="307">
@@ -4736,7 +4736,7 @@
         <v>72.4958484194091</v>
       </c>
       <c r="D307" t="n">
-        <v>-8.532087821702946</v>
+        <v>-4.266043910851473</v>
       </c>
     </row>
     <row r="308">
@@ -4750,7 +4750,7 @@
         <v>66.3289105574874</v>
       </c>
       <c r="D308" t="n">
-        <v>-8.86705328159962</v>
+        <v>-4.43352664079981</v>
       </c>
     </row>
     <row r="309">
@@ -4764,7 +4764,7 @@
         <v>60.32019201564104</v>
       </c>
       <c r="D309" t="n">
-        <v>-9.225178650194977</v>
+        <v>-4.612589325097488</v>
       </c>
     </row>
     <row r="310">
@@ -4778,7 +4778,7 @@
         <v>54.52202862359275</v>
       </c>
       <c r="D310" t="n">
-        <v>-9.606644693977925</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="311">
@@ -4792,7 +4792,7 @@
         <v>49.00920828811</v>
       </c>
       <c r="D311" t="n">
-        <v>-10.00929692887849</v>
+        <v>-5.004648464439247</v>
       </c>
     </row>
     <row r="312">
@@ -4806,7 +4806,7 @@
         <v>43.88938641847538</v>
       </c>
       <c r="D312" t="n">
-        <v>-10.42633189867162</v>
+        <v>-5.21316594933581</v>
       </c>
     </row>
     <row r="313">
@@ -4820,7 +4820,7 @@
         <v>39.3163939689358</v>
       </c>
       <c r="D313" t="n">
-        <v>-10.84242615947277</v>
+        <v>-5.421213079736386</v>
       </c>
     </row>
     <row r="314">
@@ -4834,7 +4834,7 @@
         <v>35.50217289995518</v>
       </c>
       <c r="D314" t="n">
-        <v>-11.22848282603681</v>
+        <v>-5.614241413018407</v>
       </c>
     </row>
     <row r="315">
@@ -4848,7 +4848,7 @@
         <v>32.71321717415566</v>
       </c>
       <c r="D315" t="n">
-        <v>-11.53808294481788</v>
+        <v>-5.769041472408941</v>
       </c>
     </row>
     <row r="316">
@@ -4862,7 +4862,7 @@
         <v>31.22546599357731</v>
       </c>
       <c r="D316" t="n">
-        <v>-11.71424709517223</v>
+        <v>-5.857123547586116</v>
       </c>
     </row>
     <row r="317">
@@ -4876,7 +4876,7 @@
         <v>31.22546599357731</v>
       </c>
       <c r="D317" t="n">
-        <v>-11.71424709517223</v>
+        <v>-5.857123547586116</v>
       </c>
     </row>
     <row r="318">
@@ -4890,7 +4890,7 @@
         <v>32.71321717415565</v>
       </c>
       <c r="D318" t="n">
-        <v>-11.53808294481788</v>
+        <v>-5.769041472408942</v>
       </c>
     </row>
     <row r="319">
@@ -4904,7 +4904,7 @@
         <v>35.50217289995518</v>
       </c>
       <c r="D319" t="n">
-        <v>-11.22848282603681</v>
+        <v>-5.614241413018407</v>
       </c>
     </row>
     <row r="320">
@@ -4918,7 +4918,7 @@
         <v>39.31639396893579</v>
       </c>
       <c r="D320" t="n">
-        <v>-10.84242615947277</v>
+        <v>-5.421213079736387</v>
       </c>
     </row>
     <row r="321">
@@ -4932,7 +4932,7 @@
         <v>43.88938641847535</v>
       </c>
       <c r="D321" t="n">
-        <v>-10.42633189867162</v>
+        <v>-5.21316594933581</v>
       </c>
     </row>
     <row r="322">
@@ -4946,7 +4946,7 @@
         <v>49.00920828810997</v>
       </c>
       <c r="D322" t="n">
-        <v>-10.00929692887849</v>
+        <v>-5.004648464439247</v>
       </c>
     </row>
     <row r="323">
@@ -4960,7 +4960,7 @@
         <v>54.52202862359274</v>
       </c>
       <c r="D323" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="324">
@@ -4974,7 +4974,7 @@
         <v>60.32019201564103</v>
       </c>
       <c r="D324" t="n">
-        <v>-9.225178650194977</v>
+        <v>-4.612589325097488</v>
       </c>
     </row>
     <row r="325">
@@ -4988,7 +4988,7 @@
         <v>66.3289105574874</v>
       </c>
       <c r="D325" t="n">
-        <v>-8.86705328159962</v>
+        <v>-4.43352664079981</v>
       </c>
     </row>
     <row r="326">
@@ -5002,7 +5002,7 @@
         <v>72.4958484194091</v>
       </c>
       <c r="D326" t="n">
-        <v>-8.532087821702946</v>
+        <v>-4.266043910851473</v>
       </c>
     </row>
     <row r="327">
@@ -5016,7 +5016,7 @@
         <v>78.78385971583351</v>
       </c>
       <c r="D327" t="n">
-        <v>-8.219027923564113</v>
+        <v>-4.109513961782056</v>
       </c>
     </row>
     <row r="328">
@@ -5030,7 +5030,7 @@
         <v>85.16613127743771</v>
       </c>
       <c r="D328" t="n">
-        <v>-7.926200517992883</v>
+        <v>-3.963100258996441</v>
       </c>
     </row>
     <row r="329">
@@ -5044,7 +5044,7 @@
         <v>91.62296727990635</v>
       </c>
       <c r="D329" t="n">
-        <v>-7.651840771095009</v>
+        <v>-3.825920385547505</v>
       </c>
     </row>
     <row r="330">
@@ -5058,7 +5058,7 @@
         <v>98.13965152246693</v>
       </c>
       <c r="D330" t="n">
-        <v>-7.39424715098176</v>
+        <v>-3.69712357549088</v>
       </c>
     </row>
     <row r="331">
@@ -5072,7 +5072,7 @@
         <v>104.7050100047516</v>
       </c>
       <c r="D331" t="n">
-        <v>-7.151848034620062</v>
+        <v>-3.575924017310031</v>
       </c>
     </row>
     <row r="332">
@@ -5086,7 +5086,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D332" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="333">
@@ -5100,7 +5100,7 @@
         <v>96.18155642056105</v>
       </c>
       <c r="D333" t="n">
-        <v>-7.469764815047496</v>
+        <v>-3.734882407523748</v>
       </c>
     </row>
     <row r="334">
@@ -5114,7 +5114,7 @@
         <v>89.52244817756669</v>
       </c>
       <c r="D334" t="n">
-        <v>-7.738872673812097</v>
+        <v>-3.869436336906049</v>
       </c>
     </row>
     <row r="335">
@@ -5128,7 +5128,7 @@
         <v>82.90217434600902</v>
       </c>
       <c r="D335" t="n">
-        <v>-8.027442031693891</v>
+        <v>-4.013721015846945</v>
       </c>
     </row>
     <row r="336">
@@ -5142,7 +5142,7 @@
         <v>76.33084007302986</v>
       </c>
       <c r="D336" t="n">
-        <v>-8.338035728513322</v>
+        <v>-4.169017864256661</v>
       </c>
     </row>
     <row r="337">
@@ -5156,7 +5156,7 @@
         <v>69.82226459074685</v>
       </c>
       <c r="D337" t="n">
-        <v>-8.673624141936386</v>
+        <v>-4.336812070968193</v>
       </c>
     </row>
     <row r="338">
@@ -5170,7 +5170,7 @@
         <v>63.39578038224219</v>
       </c>
       <c r="D338" t="n">
-        <v>-9.037586415665334</v>
+        <v>-4.518793207832667</v>
       </c>
     </row>
     <row r="339">
@@ -5184,7 +5184,7 @@
         <v>57.07912192154086</v>
       </c>
       <c r="D339" t="n">
-        <v>-9.433605213626109</v>
+        <v>-4.716802606813054</v>
       </c>
     </row>
     <row r="340">
@@ -5198,7 +5198,7 @@
         <v>50.91318296632208</v>
       </c>
       <c r="D340" t="n">
-        <v>-9.865297299345757</v>
+        <v>-4.932648649672879</v>
       </c>
     </row>
     <row r="341">
@@ -5212,7 +5212,7 @@
         <v>44.96001658760448</v>
       </c>
       <c r="D341" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="342">
@@ -5226,7 +5226,7 @@
         <v>39.3163939689358</v>
       </c>
       <c r="D342" t="n">
-        <v>-10.84242615947277</v>
+        <v>-5.421213079736386</v>
       </c>
     </row>
     <row r="343">
@@ -5240,7 +5240,7 @@
         <v>34.13618943659196</v>
       </c>
       <c r="D343" t="n">
-        <v>-11.37694872095866</v>
+        <v>-5.688474360479329</v>
       </c>
     </row>
     <row r="344">
@@ -5254,7 +5254,7 @@
         <v>29.66319057600906</v>
       </c>
       <c r="D344" t="n">
-        <v>-11.90853165079303</v>
+        <v>-5.954265825396513</v>
       </c>
     </row>
     <row r="345">
@@ -5268,7 +5268,7 @@
         <v>26.26128657194452</v>
       </c>
       <c r="D345" t="n">
-        <v>-12.36969389949508</v>
+        <v>-6.18484694974754</v>
       </c>
     </row>
     <row r="346">
@@ -5282,7 +5282,7 @@
         <v>24.38299245470854</v>
       </c>
       <c r="D346" t="n">
-        <v>-12.65069105465253</v>
+        <v>-6.325345527326263</v>
       </c>
     </row>
     <row r="347">
@@ -5296,7 +5296,7 @@
         <v>24.38299245470854</v>
       </c>
       <c r="D347" t="n">
-        <v>-12.65069105465253</v>
+        <v>-6.325345527326263</v>
       </c>
     </row>
     <row r="348">
@@ -5310,7 +5310,7 @@
         <v>26.26128657194451</v>
       </c>
       <c r="D348" t="n">
-        <v>-12.36969389949508</v>
+        <v>-6.184846949747541</v>
       </c>
     </row>
     <row r="349">
@@ -5324,7 +5324,7 @@
         <v>29.66319057600906</v>
       </c>
       <c r="D349" t="n">
-        <v>-11.90853165079303</v>
+        <v>-5.954265825396513</v>
       </c>
     </row>
     <row r="350">
@@ -5338,7 +5338,7 @@
         <v>34.13618943659194</v>
       </c>
       <c r="D350" t="n">
-        <v>-11.37694872095866</v>
+        <v>-5.68847436047933</v>
       </c>
     </row>
     <row r="351">
@@ -5352,7 +5352,7 @@
         <v>39.31639396893578</v>
       </c>
       <c r="D351" t="n">
-        <v>-10.84242615947278</v>
+        <v>-5.421213079736388</v>
       </c>
     </row>
     <row r="352">
@@ -5366,7 +5366,7 @@
         <v>44.96001658760446</v>
       </c>
       <c r="D352" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="353">
@@ -5380,7 +5380,7 @@
         <v>50.91318296632206</v>
       </c>
       <c r="D353" t="n">
-        <v>-9.865297299345757</v>
+        <v>-4.932648649672879</v>
       </c>
     </row>
     <row r="354">
@@ -5394,7 +5394,7 @@
         <v>57.07912192154085</v>
       </c>
       <c r="D354" t="n">
-        <v>-9.433605213626109</v>
+        <v>-4.716802606813054</v>
       </c>
     </row>
     <row r="355">
@@ -5408,7 +5408,7 @@
         <v>63.39578038224219</v>
       </c>
       <c r="D355" t="n">
-        <v>-9.037586415665334</v>
+        <v>-4.518793207832667</v>
       </c>
     </row>
     <row r="356">
@@ -5422,7 +5422,7 @@
         <v>69.82226459074685</v>
       </c>
       <c r="D356" t="n">
-        <v>-8.673624141936386</v>
+        <v>-4.336812070968193</v>
       </c>
     </row>
     <row r="357">
@@ -5436,7 +5436,7 @@
         <v>76.33084007302983</v>
       </c>
       <c r="D357" t="n">
-        <v>-8.338035728513324</v>
+        <v>-4.169017864256662</v>
       </c>
     </row>
     <row r="358">
@@ -5450,7 +5450,7 @@
         <v>82.90217434600901</v>
       </c>
       <c r="D358" t="n">
-        <v>-8.027442031693893</v>
+        <v>-4.013721015846946</v>
       </c>
     </row>
     <row r="359">
@@ -5464,7 +5464,7 @@
         <v>89.52244817756667</v>
       </c>
       <c r="D359" t="n">
-        <v>-7.738872673812097</v>
+        <v>-3.869436336906049</v>
       </c>
     </row>
     <row r="360">
@@ -5478,7 +5478,7 @@
         <v>96.18155642056105</v>
       </c>
       <c r="D360" t="n">
-        <v>-7.469764815047496</v>
+        <v>-3.734882407523748</v>
       </c>
     </row>
     <row r="361">
@@ -5492,7 +5492,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D361" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="362">
@@ -5506,7 +5506,7 @@
         <v>101.4754411693942</v>
       </c>
       <c r="D362" t="n">
-        <v>-7.269078160270714</v>
+        <v>-3.634539080135357</v>
       </c>
     </row>
     <row r="363">
@@ -5520,7 +5520,7 @@
         <v>94.68641529479986</v>
       </c>
       <c r="D363" t="n">
-        <v>-7.528493481274289</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="364">
@@ -5534,7 +5534,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D364" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="365">
@@ -5548,7 +5548,7 @@
         <v>81.16277445475738</v>
       </c>
       <c r="D365" t="n">
-        <v>-8.107153662616048</v>
+        <v>-4.053576831308024</v>
       </c>
     </row>
     <row r="366">
@@ -5562,7 +5562,7 @@
         <v>74.43804532732037</v>
       </c>
       <c r="D366" t="n">
-        <v>-8.432545670348018</v>
+        <v>-4.216272835174009</v>
       </c>
     </row>
     <row r="367">
@@ -5576,7 +5576,7 @@
         <v>67.74787139444311</v>
       </c>
       <c r="D367" t="n">
-        <v>-8.787270271016753</v>
+        <v>-4.393635135508377</v>
       </c>
     </row>
     <row r="368">
@@ -5590,7 +5590,7 @@
         <v>61.10360395403224</v>
       </c>
       <c r="D368" t="n">
-        <v>-9.176494501769822</v>
+        <v>-4.588247250884911</v>
       </c>
     </row>
     <row r="369">
@@ -5604,7 +5604,7 @@
         <v>54.52202862359275</v>
       </c>
       <c r="D369" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="370">
@@ -5618,7 +5618,7 @@
         <v>48.02892509373834</v>
       </c>
       <c r="D370" t="n">
-        <v>-10.08564668705603</v>
+        <v>-5.042823343528013</v>
       </c>
     </row>
     <row r="371">
@@ -5632,7 +5632,7 @@
         <v>41.66567577101577</v>
       </c>
       <c r="D371" t="n">
-        <v>-10.62293272671636</v>
+        <v>-5.311466363358178</v>
       </c>
     </row>
     <row r="372">
@@ -5646,7 +5646,7 @@
         <v>35.50217289995518</v>
       </c>
       <c r="D372" t="n">
-        <v>-11.22848282603681</v>
+        <v>-5.614241413018407</v>
       </c>
     </row>
     <row r="373">
@@ -5660,7 +5660,7 @@
         <v>29.66319057600906</v>
       </c>
       <c r="D373" t="n">
-        <v>-11.90853165079303</v>
+        <v>-5.954265825396513</v>
       </c>
     </row>
     <row r="374">
@@ -5674,7 +5674,7 @@
         <v>24.38299245470853</v>
       </c>
       <c r="D374" t="n">
-        <v>-12.65069105465253</v>
+        <v>-6.325345527326264</v>
       </c>
     </row>
     <row r="375">
@@ -5688,7 +5688,7 @@
         <v>20.10673067188035</v>
       </c>
       <c r="D375" t="n">
-        <v>-13.38097741484285</v>
+        <v>-6.690488707421426</v>
       </c>
     </row>
     <row r="376">
@@ -5702,7 +5702,7 @@
         <v>17.58282590894064</v>
       </c>
       <c r="D376" t="n">
-        <v>-13.88904312942233</v>
+        <v>-6.944521564711164</v>
       </c>
     </row>
     <row r="377">
@@ -5716,7 +5716,7 @@
         <v>17.58282590894063</v>
       </c>
       <c r="D377" t="n">
-        <v>-13.88904312942233</v>
+        <v>-6.944521564711164</v>
       </c>
     </row>
     <row r="378">
@@ -5730,7 +5730,7 @@
         <v>20.10673067188034</v>
       </c>
       <c r="D378" t="n">
-        <v>-13.38097741484285</v>
+        <v>-6.690488707421427</v>
       </c>
     </row>
     <row r="379">
@@ -5744,7 +5744,7 @@
         <v>24.38299245470853</v>
       </c>
       <c r="D379" t="n">
-        <v>-12.65069105465253</v>
+        <v>-6.325345527326264</v>
       </c>
     </row>
     <row r="380">
@@ -5758,7 +5758,7 @@
         <v>29.66319057600905</v>
       </c>
       <c r="D380" t="n">
-        <v>-11.90853165079303</v>
+        <v>-5.954265825396513</v>
       </c>
     </row>
     <row r="381">
@@ -5772,7 +5772,7 @@
         <v>35.50217289995516</v>
       </c>
       <c r="D381" t="n">
-        <v>-11.22848282603682</v>
+        <v>-5.614241413018408</v>
       </c>
     </row>
     <row r="382">
@@ -5786,7 +5786,7 @@
         <v>41.66567577101576</v>
       </c>
       <c r="D382" t="n">
-        <v>-10.62293272671636</v>
+        <v>-5.311466363358178</v>
       </c>
     </row>
     <row r="383">
@@ -5800,7 +5800,7 @@
         <v>48.02892509373833</v>
       </c>
       <c r="D383" t="n">
-        <v>-10.08564668705603</v>
+        <v>-5.042823343528013</v>
       </c>
     </row>
     <row r="384">
@@ -5814,7 +5814,7 @@
         <v>54.52202862359274</v>
       </c>
       <c r="D384" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="385">
@@ -5828,7 +5828,7 @@
         <v>61.10360395403224</v>
       </c>
       <c r="D385" t="n">
-        <v>-9.176494501769822</v>
+        <v>-4.588247250884911</v>
       </c>
     </row>
     <row r="386">
@@ -5842,7 +5842,7 @@
         <v>67.74787139444311</v>
       </c>
       <c r="D386" t="n">
-        <v>-8.787270271016753</v>
+        <v>-4.393635135508377</v>
       </c>
     </row>
     <row r="387">
@@ -5856,7 +5856,7 @@
         <v>74.43804532732034</v>
       </c>
       <c r="D387" t="n">
-        <v>-8.43254567034802</v>
+        <v>-4.21627283517401</v>
       </c>
     </row>
     <row r="388">
@@ -5870,7 +5870,7 @@
         <v>81.16277445475737</v>
       </c>
       <c r="D388" t="n">
-        <v>-8.107153662616049</v>
+        <v>-4.053576831308025</v>
       </c>
     </row>
     <row r="389">
@@ -5884,7 +5884,7 @@
         <v>87.91412954470317</v>
       </c>
       <c r="D389" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="390">
@@ -5898,7 +5898,7 @@
         <v>94.68641529479986</v>
       </c>
       <c r="D390" t="n">
-        <v>-7.528493481274289</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="391">
@@ -5912,7 +5912,7 @@
         <v>101.4754411693942</v>
       </c>
       <c r="D391" t="n">
-        <v>-7.269078160270714</v>
+        <v>-3.634539080135357</v>
       </c>
     </row>
     <row r="392">
@@ -5926,7 +5926,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D392" t="n">
-        <v>-7.303985085654316</v>
+        <v>-3.651992542827158</v>
       </c>
     </row>
     <row r="393">
@@ -5940,7 +5940,7 @@
         <v>93.67639798073189</v>
       </c>
       <c r="D393" t="n">
-        <v>-7.568705204128375</v>
+        <v>-3.784352602064188</v>
       </c>
     </row>
     <row r="394">
@@ -5954,7 +5954,7 @@
         <v>86.82536766906325</v>
       </c>
       <c r="D394" t="n">
-        <v>-7.853724849039664</v>
+        <v>-3.926862424519832</v>
       </c>
     </row>
     <row r="395">
@@ -5968,7 +5968,7 @@
         <v>79.98216210167726</v>
       </c>
       <c r="D395" t="n">
-        <v>-8.162252557943521</v>
+        <v>-4.081126278971761</v>
       </c>
     </row>
     <row r="396">
@@ -5982,7 +5982,7 @@
         <v>73.14897736412561</v>
       </c>
       <c r="D396" t="n">
-        <v>-8.498315117126994</v>
+        <v>-4.249157558563497</v>
       </c>
     </row>
     <row r="397">
@@ -5996,7 +5996,7 @@
         <v>66.3289105574874</v>
       </c>
       <c r="D397" t="n">
-        <v>-8.86705328159962</v>
+        <v>-4.43352664079981</v>
       </c>
     </row>
     <row r="398">
@@ -6010,7 +6010,7 @@
         <v>59.526470695283</v>
       </c>
       <c r="D398" t="n">
-        <v>-9.275158253727076</v>
+        <v>-4.637579126863538</v>
       </c>
     </row>
     <row r="399">
@@ -6024,7 +6024,7 @@
         <v>52.74847772682191</v>
       </c>
       <c r="D399" t="n">
-        <v>-9.731531497916587</v>
+        <v>-4.865765748958293</v>
       </c>
     </row>
     <row r="400">
@@ -6038,7 +6038,7 @@
         <v>46.00573815215977</v>
       </c>
       <c r="D400" t="n">
-        <v>-10.24830383264385</v>
+        <v>-5.124151916321925</v>
       </c>
     </row>
     <row r="401">
@@ -6052,7 +6052,7 @@
         <v>39.3163939689358</v>
       </c>
       <c r="D401" t="n">
-        <v>-10.84242615947277</v>
+        <v>-5.421213079736386</v>
       </c>
     </row>
     <row r="402">
@@ -6066,7 +6066,7 @@
         <v>32.71321717415566</v>
       </c>
       <c r="D402" t="n">
-        <v>-11.53808294481788</v>
+        <v>-5.769041472408941</v>
       </c>
     </row>
     <row r="403">
@@ -6080,7 +6080,7 @@
         <v>26.26128657194452</v>
       </c>
       <c r="D403" t="n">
-        <v>-12.36969389949508</v>
+        <v>-6.18484694974754</v>
       </c>
     </row>
     <row r="404">
@@ -6094,7 +6094,7 @@
         <v>20.10673067188035</v>
       </c>
       <c r="D404" t="n">
-        <v>-13.38097741484285</v>
+        <v>-6.690488707421426</v>
       </c>
     </row>
     <row r="405">
@@ -6108,7 +6108,7 @@
         <v>14.62979547282513</v>
       </c>
       <c r="D405" t="n">
-        <v>-14.58555736678726</v>
+        <v>-7.29277868339363</v>
       </c>
     </row>
     <row r="406">
@@ -6122,7 +6122,7 @@
         <v>10.90440572471856</v>
       </c>
       <c r="D406" t="n">
-        <v>-15.69902321996178</v>
+        <v>-7.849511609980888</v>
       </c>
     </row>
     <row r="407">
@@ -6136,7 +6136,7 @@
         <v>10.90440572471855</v>
       </c>
       <c r="D407" t="n">
-        <v>-15.69902321996178</v>
+        <v>-7.849511609980889</v>
       </c>
     </row>
     <row r="408">
@@ -6150,7 +6150,7 @@
         <v>14.62979547282512</v>
       </c>
       <c r="D408" t="n">
-        <v>-14.58555736678726</v>
+        <v>-7.292778683393632</v>
       </c>
     </row>
     <row r="409">
@@ -6164,7 +6164,7 @@
         <v>20.10673067188035</v>
       </c>
       <c r="D409" t="n">
-        <v>-13.38097741484285</v>
+        <v>-6.690488707421426</v>
       </c>
     </row>
     <row r="410">
@@ -6178,7 +6178,7 @@
         <v>26.2612865719445</v>
       </c>
       <c r="D410" t="n">
-        <v>-12.36969389949508</v>
+        <v>-6.184846949747541</v>
       </c>
     </row>
     <row r="411">
@@ -6192,7 +6192,7 @@
         <v>32.71321717415563</v>
       </c>
       <c r="D411" t="n">
-        <v>-11.53808294481789</v>
+        <v>-5.769041472408943</v>
       </c>
     </row>
     <row r="412">
@@ -6206,7 +6206,7 @@
         <v>39.31639396893578</v>
       </c>
       <c r="D412" t="n">
-        <v>-10.84242615947278</v>
+        <v>-5.421213079736388</v>
       </c>
     </row>
     <row r="413">
@@ -6220,7 +6220,7 @@
         <v>46.00573815215976</v>
       </c>
       <c r="D413" t="n">
-        <v>-10.24830383264385</v>
+        <v>-5.124151916321926</v>
       </c>
     </row>
     <row r="414">
@@ -6234,7 +6234,7 @@
         <v>52.7484777268219</v>
       </c>
       <c r="D414" t="n">
-        <v>-9.731531497916588</v>
+        <v>-4.865765748958294</v>
       </c>
     </row>
     <row r="415">
@@ -6248,7 +6248,7 @@
         <v>59.526470695283</v>
       </c>
       <c r="D415" t="n">
-        <v>-9.275158253727076</v>
+        <v>-4.637579126863538</v>
       </c>
     </row>
     <row r="416">
@@ -6262,7 +6262,7 @@
         <v>66.3289105574874</v>
       </c>
       <c r="D416" t="n">
-        <v>-8.86705328159962</v>
+        <v>-4.43352664079981</v>
       </c>
     </row>
     <row r="417">
@@ -6276,7 +6276,7 @@
         <v>73.14897736412559</v>
       </c>
       <c r="D417" t="n">
-        <v>-8.498315117126996</v>
+        <v>-4.249157558563498</v>
       </c>
     </row>
     <row r="418">
@@ -6290,7 +6290,7 @@
         <v>79.98216210167725</v>
       </c>
       <c r="D418" t="n">
-        <v>-8.162252557943521</v>
+        <v>-4.081126278971761</v>
       </c>
     </row>
     <row r="419">
@@ -6304,7 +6304,7 @@
         <v>86.82536766906324</v>
       </c>
       <c r="D419" t="n">
-        <v>-7.853724849039664</v>
+        <v>-3.926862424519832</v>
       </c>
     </row>
     <row r="420">
@@ -6318,7 +6318,7 @@
         <v>93.67639798073189</v>
       </c>
       <c r="D420" t="n">
-        <v>-7.568705204128375</v>
+        <v>-3.784352602064188</v>
       </c>
     </row>
     <row r="421">
@@ -6332,7 +6332,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D421" t="n">
-        <v>-7.303985085654316</v>
+        <v>-3.651992542827158</v>
       </c>
     </row>
     <row r="422">
@@ -6346,7 +6346,7 @@
         <v>100.059435369289</v>
       </c>
       <c r="D422" t="n">
-        <v>-7.321688736434033</v>
+        <v>-3.660844368217016</v>
       </c>
     </row>
     <row r="423">
@@ -6360,7 +6360,7 @@
         <v>93.1672833524572</v>
       </c>
       <c r="D423" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="424">
@@ -6374,7 +6374,7 @@
         <v>86.27583450480554</v>
       </c>
       <c r="D424" t="n">
-        <v>-7.87757126706097</v>
+        <v>-3.938785633530485</v>
       </c>
     </row>
     <row r="425">
@@ -6388,7 +6388,7 @@
         <v>79.38527195325061</v>
       </c>
       <c r="D425" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="426">
@@ -6402,7 +6402,7 @@
         <v>72.49584841940911</v>
       </c>
       <c r="D426" t="n">
-        <v>-8.532087821702945</v>
+        <v>-4.266043910851472</v>
       </c>
     </row>
     <row r="427">
@@ -6416,7 +6416,7 @@
         <v>65.60792272565672</v>
       </c>
       <c r="D427" t="n">
-        <v>-8.908255166975122</v>
+        <v>-4.454127583487561</v>
       </c>
     </row>
     <row r="428">
@@ -6430,7 +6430,7 @@
         <v>58.72202195147035</v>
       </c>
       <c r="D428" t="n">
-        <v>-9.32650382669563</v>
+        <v>-4.663251913347815</v>
       </c>
     </row>
     <row r="429">
@@ -6444,7 +6444,7 @@
         <v>51.8389530288721</v>
       </c>
       <c r="D429" t="n">
-        <v>-9.797226596870965</v>
+        <v>-4.898613298435483</v>
       </c>
     </row>
     <row r="430">
@@ -6458,7 +6458,7 @@
         <v>44.96001658760448</v>
       </c>
       <c r="D430" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="431">
@@ -6472,7 +6472,7 @@
         <v>38.08745178340435</v>
       </c>
       <c r="D431" t="n">
-        <v>-10.96255074536656</v>
+        <v>-5.481275372683282</v>
       </c>
     </row>
     <row r="432">
@@ -6486,7 +6486,7 @@
         <v>31.22546599357731</v>
       </c>
       <c r="D432" t="n">
-        <v>-11.71424709517223</v>
+        <v>-5.857123547586116</v>
       </c>
     </row>
     <row r="433">
@@ -6500,7 +6500,7 @@
         <v>24.38299245470854</v>
       </c>
       <c r="D433" t="n">
-        <v>-12.65069105465253</v>
+        <v>-6.325345527326263</v>
       </c>
     </row>
     <row r="434">
@@ -6514,7 +6514,7 @@
         <v>17.58282590894064</v>
       </c>
       <c r="D434" t="n">
-        <v>-13.88904312942233</v>
+        <v>-6.944521564711164</v>
       </c>
     </row>
     <row r="435">
@@ -6528,7 +6528,7 @@
         <v>10.90440572471856</v>
       </c>
       <c r="D435" t="n">
-        <v>-15.69902321996178</v>
+        <v>-7.849511609980888</v>
       </c>
     </row>
     <row r="436">
@@ -6542,7 +6542,7 @@
         <v>4.876598490941711</v>
       </c>
       <c r="D436" t="n">
-        <v>-18.7482134200446</v>
+        <v>-9.374106710022298</v>
       </c>
     </row>
     <row r="437">
@@ -6556,7 +6556,7 @@
         <v>4.8765984909417</v>
       </c>
       <c r="D437" t="n">
-        <v>-18.7482134200446</v>
+        <v>-9.374106710022302</v>
       </c>
     </row>
     <row r="438">
@@ -6570,7 +6570,7 @@
         <v>10.90440572471854</v>
       </c>
       <c r="D438" t="n">
-        <v>-15.69902321996178</v>
+        <v>-7.849511609980891</v>
       </c>
     </row>
     <row r="439">
@@ -6584,7 +6584,7 @@
         <v>17.58282590894064</v>
       </c>
       <c r="D439" t="n">
-        <v>-13.88904312942233</v>
+        <v>-6.944521564711164</v>
       </c>
     </row>
     <row r="440">
@@ -6598,7 +6598,7 @@
         <v>24.38299245470852</v>
       </c>
       <c r="D440" t="n">
-        <v>-12.65069105465253</v>
+        <v>-6.325345527326264</v>
       </c>
     </row>
     <row r="441">
@@ -6612,7 +6612,7 @@
         <v>31.22546599357728</v>
       </c>
       <c r="D441" t="n">
-        <v>-11.71424709517223</v>
+        <v>-5.857123547586116</v>
       </c>
     </row>
     <row r="442">
@@ -6626,7 +6626,7 @@
         <v>38.08745178340433</v>
       </c>
       <c r="D442" t="n">
-        <v>-10.96255074536657</v>
+        <v>-5.481275372683283</v>
       </c>
     </row>
     <row r="443">
@@ -6640,7 +6640,7 @@
         <v>44.96001658760446</v>
       </c>
       <c r="D443" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="444">
@@ -6654,7 +6654,7 @@
         <v>51.83895302887209</v>
       </c>
       <c r="D444" t="n">
-        <v>-9.797226596870965</v>
+        <v>-4.898613298435483</v>
       </c>
     </row>
     <row r="445">
@@ -6668,7 +6668,7 @@
         <v>58.72202195147035</v>
       </c>
       <c r="D445" t="n">
-        <v>-9.32650382669563</v>
+        <v>-4.663251913347815</v>
       </c>
     </row>
     <row r="446">
@@ -6682,7 +6682,7 @@
         <v>65.60792272565672</v>
       </c>
       <c r="D446" t="n">
-        <v>-8.908255166975122</v>
+        <v>-4.454127583487561</v>
       </c>
     </row>
     <row r="447">
@@ -6696,7 +6696,7 @@
         <v>72.49584841940909</v>
       </c>
       <c r="D447" t="n">
-        <v>-8.532087821702946</v>
+        <v>-4.266043910851473</v>
       </c>
     </row>
     <row r="448">
@@ -6710,7 +6710,7 @@
         <v>79.38527195325059</v>
       </c>
       <c r="D448" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="449">
@@ -6724,7 +6724,7 @@
         <v>86.27583450480553</v>
       </c>
       <c r="D449" t="n">
-        <v>-7.87757126706097</v>
+        <v>-3.938785633530485</v>
       </c>
     </row>
     <row r="450">
@@ -6738,7 +6738,7 @@
         <v>93.1672833524572</v>
       </c>
       <c r="D450" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="451">
@@ -6752,7 +6752,7 @@
         <v>100.059435369289</v>
       </c>
       <c r="D451" t="n">
-        <v>-7.321688736434033</v>
+        <v>-3.660844368217016</v>
       </c>
     </row>
     <row r="452">
@@ -6766,7 +6766,7 @@
         <v>100.059435369289</v>
       </c>
       <c r="D452" t="n">
-        <v>-7.321688736434033</v>
+        <v>-3.660844368217016</v>
       </c>
     </row>
     <row r="453">
@@ -6780,7 +6780,7 @@
         <v>93.1672833524572</v>
       </c>
       <c r="D453" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="454">
@@ -6794,7 +6794,7 @@
         <v>86.27583450480554</v>
       </c>
       <c r="D454" t="n">
-        <v>-7.87757126706097</v>
+        <v>-3.938785633530485</v>
       </c>
     </row>
     <row r="455">
@@ -6808,7 +6808,7 @@
         <v>79.38527195325061</v>
       </c>
       <c r="D455" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="456">
@@ -6822,7 +6822,7 @@
         <v>72.49584841940911</v>
       </c>
       <c r="D456" t="n">
-        <v>-8.532087821702945</v>
+        <v>-4.266043910851472</v>
       </c>
     </row>
     <row r="457">
@@ -6836,7 +6836,7 @@
         <v>65.60792272565672</v>
       </c>
       <c r="D457" t="n">
-        <v>-8.908255166975122</v>
+        <v>-4.454127583487561</v>
       </c>
     </row>
     <row r="458">
@@ -6850,7 +6850,7 @@
         <v>58.72202195147035</v>
       </c>
       <c r="D458" t="n">
-        <v>-9.32650382669563</v>
+        <v>-4.663251913347815</v>
       </c>
     </row>
     <row r="459">
@@ -6864,7 +6864,7 @@
         <v>51.8389530288721</v>
       </c>
       <c r="D459" t="n">
-        <v>-9.797226596870965</v>
+        <v>-4.898613298435483</v>
       </c>
     </row>
     <row r="460">
@@ -6878,7 +6878,7 @@
         <v>44.96001658760448</v>
       </c>
       <c r="D460" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="461">
@@ -6892,7 +6892,7 @@
         <v>38.08745178340435</v>
       </c>
       <c r="D461" t="n">
-        <v>-10.96255074536656</v>
+        <v>-5.481275372683282</v>
       </c>
     </row>
     <row r="462">
@@ -6906,7 +6906,7 @@
         <v>31.22546599357731</v>
       </c>
       <c r="D462" t="n">
-        <v>-11.71424709517223</v>
+        <v>-5.857123547586116</v>
       </c>
     </row>
     <row r="463">
@@ -6920,7 +6920,7 @@
         <v>24.38299245470854</v>
       </c>
       <c r="D463" t="n">
-        <v>-12.65069105465253</v>
+        <v>-6.325345527326263</v>
       </c>
     </row>
     <row r="464">
@@ -6934,7 +6934,7 @@
         <v>17.58282590894063</v>
       </c>
       <c r="D464" t="n">
-        <v>-13.88904312942233</v>
+        <v>-6.944521564711164</v>
       </c>
     </row>
     <row r="465">
@@ -6948,7 +6948,7 @@
         <v>10.90440572471855</v>
       </c>
       <c r="D465" t="n">
-        <v>-15.69902321996178</v>
+        <v>-7.849511609980889</v>
       </c>
     </row>
     <row r="466">
@@ -6962,7 +6962,7 @@
         <v>4.8765984909417</v>
       </c>
       <c r="D466" t="n">
-        <v>-18.7482134200446</v>
+        <v>-9.374106710022302</v>
       </c>
     </row>
     <row r="467">
@@ -6976,7 +6976,7 @@
         <v>4.87659849094169</v>
       </c>
       <c r="D467" t="n">
-        <v>-18.74821342004461</v>
+        <v>-9.374106710022305</v>
       </c>
     </row>
     <row r="468">
@@ -6990,7 +6990,7 @@
         <v>10.90440572471854</v>
       </c>
       <c r="D468" t="n">
-        <v>-15.69902321996178</v>
+        <v>-7.849511609980891</v>
       </c>
     </row>
     <row r="469">
@@ -7004,7 +7004,7 @@
         <v>17.58282590894063</v>
       </c>
       <c r="D469" t="n">
-        <v>-13.88904312942233</v>
+        <v>-6.944521564711164</v>
       </c>
     </row>
     <row r="470">
@@ -7018,7 +7018,7 @@
         <v>24.38299245470852</v>
       </c>
       <c r="D470" t="n">
-        <v>-12.65069105465253</v>
+        <v>-6.325345527326265</v>
       </c>
     </row>
     <row r="471">
@@ -7032,7 +7032,7 @@
         <v>31.22546599357728</v>
       </c>
       <c r="D471" t="n">
-        <v>-11.71424709517223</v>
+        <v>-5.857123547586116</v>
       </c>
     </row>
     <row r="472">
@@ -7046,7 +7046,7 @@
         <v>38.08745178340433</v>
       </c>
       <c r="D472" t="n">
-        <v>-10.96255074536657</v>
+        <v>-5.481275372683283</v>
       </c>
     </row>
     <row r="473">
@@ -7060,7 +7060,7 @@
         <v>44.96001658760446</v>
       </c>
       <c r="D473" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="474">
@@ -7074,7 +7074,7 @@
         <v>51.83895302887209</v>
       </c>
       <c r="D474" t="n">
-        <v>-9.797226596870965</v>
+        <v>-4.898613298435483</v>
       </c>
     </row>
     <row r="475">
@@ -7088,7 +7088,7 @@
         <v>58.72202195147035</v>
       </c>
       <c r="D475" t="n">
-        <v>-9.32650382669563</v>
+        <v>-4.663251913347815</v>
       </c>
     </row>
     <row r="476">
@@ -7102,7 +7102,7 @@
         <v>65.60792272565672</v>
       </c>
       <c r="D476" t="n">
-        <v>-8.908255166975122</v>
+        <v>-4.454127583487561</v>
       </c>
     </row>
     <row r="477">
@@ -7116,7 +7116,7 @@
         <v>72.49584841940909</v>
       </c>
       <c r="D477" t="n">
-        <v>-8.532087821702946</v>
+        <v>-4.266043910851473</v>
       </c>
     </row>
     <row r="478">
@@ -7130,7 +7130,7 @@
         <v>79.38527195325059</v>
       </c>
       <c r="D478" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="479">
@@ -7144,7 +7144,7 @@
         <v>86.27583450480553</v>
       </c>
       <c r="D479" t="n">
-        <v>-7.87757126706097</v>
+        <v>-3.938785633530485</v>
       </c>
     </row>
     <row r="480">
@@ -7158,7 +7158,7 @@
         <v>93.1672833524572</v>
       </c>
       <c r="D480" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="481">
@@ -7172,7 +7172,7 @@
         <v>100.059435369289</v>
       </c>
       <c r="D481" t="n">
-        <v>-7.321688736434033</v>
+        <v>-3.660844368217016</v>
       </c>
     </row>
     <row r="482">
@@ -7186,7 +7186,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D482" t="n">
-        <v>-7.303985085654316</v>
+        <v>-3.651992542827158</v>
       </c>
     </row>
     <row r="483">
@@ -7200,7 +7200,7 @@
         <v>93.67639798073189</v>
       </c>
       <c r="D483" t="n">
-        <v>-7.568705204128375</v>
+        <v>-3.784352602064188</v>
       </c>
     </row>
     <row r="484">
@@ -7214,7 +7214,7 @@
         <v>86.82536766906325</v>
       </c>
       <c r="D484" t="n">
-        <v>-7.853724849039664</v>
+        <v>-3.926862424519832</v>
       </c>
     </row>
     <row r="485">
@@ -7228,7 +7228,7 @@
         <v>79.98216210167725</v>
       </c>
       <c r="D485" t="n">
-        <v>-8.162252557943521</v>
+        <v>-4.081126278971761</v>
       </c>
     </row>
     <row r="486">
@@ -7242,7 +7242,7 @@
         <v>73.14897736412561</v>
       </c>
       <c r="D486" t="n">
-        <v>-8.498315117126994</v>
+        <v>-4.249157558563497</v>
       </c>
     </row>
     <row r="487">
@@ -7256,7 +7256,7 @@
         <v>66.32891055748739</v>
       </c>
       <c r="D487" t="n">
-        <v>-8.867053281599622</v>
+        <v>-4.433526640799811</v>
       </c>
     </row>
     <row r="488">
@@ -7270,7 +7270,7 @@
         <v>59.526470695283</v>
       </c>
       <c r="D488" t="n">
-        <v>-9.275158253727076</v>
+        <v>-4.637579126863538</v>
       </c>
     </row>
     <row r="489">
@@ -7284,7 +7284,7 @@
         <v>52.74847772682191</v>
       </c>
       <c r="D489" t="n">
-        <v>-9.731531497916587</v>
+        <v>-4.865765748958293</v>
       </c>
     </row>
     <row r="490">
@@ -7298,7 +7298,7 @@
         <v>46.00573815215977</v>
       </c>
       <c r="D490" t="n">
-        <v>-10.24830383264385</v>
+        <v>-5.124151916321925</v>
       </c>
     </row>
     <row r="491">
@@ -7312,7 +7312,7 @@
         <v>39.3163939689358</v>
       </c>
       <c r="D491" t="n">
-        <v>-10.84242615947277</v>
+        <v>-5.421213079736386</v>
       </c>
     </row>
     <row r="492">
@@ -7326,7 +7326,7 @@
         <v>32.71321717415565</v>
       </c>
       <c r="D492" t="n">
-        <v>-11.53808294481788</v>
+        <v>-5.769041472408942</v>
       </c>
     </row>
     <row r="493">
@@ -7340,7 +7340,7 @@
         <v>26.26128657194451</v>
       </c>
       <c r="D493" t="n">
-        <v>-12.36969389949508</v>
+        <v>-6.184846949747541</v>
       </c>
     </row>
     <row r="494">
@@ -7354,7 +7354,7 @@
         <v>20.10673067188034</v>
       </c>
       <c r="D494" t="n">
-        <v>-13.38097741484285</v>
+        <v>-6.690488707421427</v>
       </c>
     </row>
     <row r="495">
@@ -7368,7 +7368,7 @@
         <v>14.62979547282512</v>
       </c>
       <c r="D495" t="n">
-        <v>-14.58555736678726</v>
+        <v>-7.292778683393632</v>
       </c>
     </row>
     <row r="496">
@@ -7382,7 +7382,7 @@
         <v>10.90440572471854</v>
       </c>
       <c r="D496" t="n">
-        <v>-15.69902321996178</v>
+        <v>-7.849511609980891</v>
       </c>
     </row>
     <row r="497">
@@ -7396,7 +7396,7 @@
         <v>10.90440572471854</v>
       </c>
       <c r="D497" t="n">
-        <v>-15.69902321996178</v>
+        <v>-7.849511609980891</v>
       </c>
     </row>
     <row r="498">
@@ -7410,7 +7410,7 @@
         <v>14.62979547282511</v>
       </c>
       <c r="D498" t="n">
-        <v>-14.58555736678726</v>
+        <v>-7.292778683393632</v>
       </c>
     </row>
     <row r="499">
@@ -7424,7 +7424,7 @@
         <v>20.10673067188034</v>
       </c>
       <c r="D499" t="n">
-        <v>-13.38097741484285</v>
+        <v>-6.690488707421427</v>
       </c>
     </row>
     <row r="500">
@@ -7438,7 +7438,7 @@
         <v>26.2612865719445</v>
       </c>
       <c r="D500" t="n">
-        <v>-12.36969389949508</v>
+        <v>-6.184846949747542</v>
       </c>
     </row>
     <row r="501">
@@ -7452,7 +7452,7 @@
         <v>32.71321717415562</v>
       </c>
       <c r="D501" t="n">
-        <v>-11.53808294481789</v>
+        <v>-5.769041472408943</v>
       </c>
     </row>
     <row r="502">
@@ -7466,7 +7466,7 @@
         <v>39.31639396893578</v>
       </c>
       <c r="D502" t="n">
-        <v>-10.84242615947278</v>
+        <v>-5.421213079736388</v>
       </c>
     </row>
     <row r="503">
@@ -7480,7 +7480,7 @@
         <v>46.00573815215976</v>
       </c>
       <c r="D503" t="n">
-        <v>-10.24830383264385</v>
+        <v>-5.124151916321926</v>
       </c>
     </row>
     <row r="504">
@@ -7494,7 +7494,7 @@
         <v>52.7484777268219</v>
       </c>
       <c r="D504" t="n">
-        <v>-9.731531497916588</v>
+        <v>-4.865765748958294</v>
       </c>
     </row>
     <row r="505">
@@ -7508,7 +7508,7 @@
         <v>59.526470695283</v>
       </c>
       <c r="D505" t="n">
-        <v>-9.275158253727076</v>
+        <v>-4.637579126863538</v>
       </c>
     </row>
     <row r="506">
@@ -7522,7 +7522,7 @@
         <v>66.32891055748739</v>
       </c>
       <c r="D506" t="n">
-        <v>-8.867053281599622</v>
+        <v>-4.433526640799811</v>
       </c>
     </row>
     <row r="507">
@@ -7536,7 +7536,7 @@
         <v>73.14897736412559</v>
       </c>
       <c r="D507" t="n">
-        <v>-8.498315117126996</v>
+        <v>-4.249157558563498</v>
       </c>
     </row>
     <row r="508">
@@ -7550,7 +7550,7 @@
         <v>79.98216210167723</v>
       </c>
       <c r="D508" t="n">
-        <v>-8.162252557943523</v>
+        <v>-4.081126278971762</v>
       </c>
     </row>
     <row r="509">
@@ -7564,7 +7564,7 @@
         <v>86.82536766906324</v>
       </c>
       <c r="D509" t="n">
-        <v>-7.853724849039664</v>
+        <v>-3.926862424519832</v>
       </c>
     </row>
     <row r="510">
@@ -7578,7 +7578,7 @@
         <v>93.67639798073189</v>
       </c>
       <c r="D510" t="n">
-        <v>-7.568705204128375</v>
+        <v>-3.784352602064188</v>
       </c>
     </row>
     <row r="511">
@@ -7592,7 +7592,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D511" t="n">
-        <v>-7.303985085654316</v>
+        <v>-3.651992542827158</v>
       </c>
     </row>
     <row r="512">
@@ -7606,7 +7606,7 @@
         <v>101.4754411693942</v>
       </c>
       <c r="D512" t="n">
-        <v>-7.269078160270714</v>
+        <v>-3.634539080135357</v>
       </c>
     </row>
     <row r="513">
@@ -7620,7 +7620,7 @@
         <v>94.68641529479986</v>
       </c>
       <c r="D513" t="n">
-        <v>-7.528493481274289</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="514">
@@ -7634,7 +7634,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D514" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="515">
@@ -7648,7 +7648,7 @@
         <v>81.16277445475738</v>
       </c>
       <c r="D515" t="n">
-        <v>-8.107153662616048</v>
+        <v>-4.053576831308024</v>
       </c>
     </row>
     <row r="516">
@@ -7662,7 +7662,7 @@
         <v>74.43804532732037</v>
       </c>
       <c r="D516" t="n">
-        <v>-8.432545670348018</v>
+        <v>-4.216272835174009</v>
       </c>
     </row>
     <row r="517">
@@ -7676,7 +7676,7 @@
         <v>67.74787139444311</v>
       </c>
       <c r="D517" t="n">
-        <v>-8.787270271016753</v>
+        <v>-4.393635135508377</v>
       </c>
     </row>
     <row r="518">
@@ -7690,7 +7690,7 @@
         <v>61.10360395403224</v>
       </c>
       <c r="D518" t="n">
-        <v>-9.176494501769822</v>
+        <v>-4.588247250884911</v>
       </c>
     </row>
     <row r="519">
@@ -7704,7 +7704,7 @@
         <v>54.52202862359275</v>
       </c>
       <c r="D519" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="520">
@@ -7718,7 +7718,7 @@
         <v>48.02892509373834</v>
       </c>
       <c r="D520" t="n">
-        <v>-10.08564668705603</v>
+        <v>-5.042823343528013</v>
       </c>
     </row>
     <row r="521">
@@ -7732,7 +7732,7 @@
         <v>41.66567577101577</v>
       </c>
       <c r="D521" t="n">
-        <v>-10.62293272671636</v>
+        <v>-5.311466363358178</v>
       </c>
     </row>
     <row r="522">
@@ -7746,7 +7746,7 @@
         <v>35.50217289995518</v>
       </c>
       <c r="D522" t="n">
-        <v>-11.22848282603681</v>
+        <v>-5.614241413018407</v>
       </c>
     </row>
     <row r="523">
@@ -7760,7 +7760,7 @@
         <v>29.66319057600906</v>
       </c>
       <c r="D523" t="n">
-        <v>-11.90853165079303</v>
+        <v>-5.954265825396513</v>
       </c>
     </row>
     <row r="524">
@@ -7774,7 +7774,7 @@
         <v>24.38299245470853</v>
       </c>
       <c r="D524" t="n">
-        <v>-12.65069105465253</v>
+        <v>-6.325345527326264</v>
       </c>
     </row>
     <row r="525">
@@ -7788,7 +7788,7 @@
         <v>20.10673067188035</v>
       </c>
       <c r="D525" t="n">
-        <v>-13.38097741484285</v>
+        <v>-6.690488707421426</v>
       </c>
     </row>
     <row r="526">
@@ -7802,7 +7802,7 @@
         <v>17.58282590894064</v>
       </c>
       <c r="D526" t="n">
-        <v>-13.88904312942233</v>
+        <v>-6.944521564711164</v>
       </c>
     </row>
     <row r="527">
@@ -7816,7 +7816,7 @@
         <v>17.58282590894063</v>
       </c>
       <c r="D527" t="n">
-        <v>-13.88904312942233</v>
+        <v>-6.944521564711164</v>
       </c>
     </row>
     <row r="528">
@@ -7830,7 +7830,7 @@
         <v>20.10673067188034</v>
       </c>
       <c r="D528" t="n">
-        <v>-13.38097741484285</v>
+        <v>-6.690488707421427</v>
       </c>
     </row>
     <row r="529">
@@ -7844,7 +7844,7 @@
         <v>24.38299245470853</v>
       </c>
       <c r="D529" t="n">
-        <v>-12.65069105465253</v>
+        <v>-6.325345527326264</v>
       </c>
     </row>
     <row r="530">
@@ -7858,7 +7858,7 @@
         <v>29.66319057600905</v>
       </c>
       <c r="D530" t="n">
-        <v>-11.90853165079303</v>
+        <v>-5.954265825396513</v>
       </c>
     </row>
     <row r="531">
@@ -7872,7 +7872,7 @@
         <v>35.50217289995516</v>
       </c>
       <c r="D531" t="n">
-        <v>-11.22848282603682</v>
+        <v>-5.614241413018408</v>
       </c>
     </row>
     <row r="532">
@@ -7886,7 +7886,7 @@
         <v>41.66567577101576</v>
       </c>
       <c r="D532" t="n">
-        <v>-10.62293272671636</v>
+        <v>-5.311466363358178</v>
       </c>
     </row>
     <row r="533">
@@ -7900,7 +7900,7 @@
         <v>48.02892509373833</v>
       </c>
       <c r="D533" t="n">
-        <v>-10.08564668705603</v>
+        <v>-5.042823343528013</v>
       </c>
     </row>
     <row r="534">
@@ -7914,7 +7914,7 @@
         <v>54.52202862359274</v>
       </c>
       <c r="D534" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="535">
@@ -7928,7 +7928,7 @@
         <v>61.10360395403224</v>
       </c>
       <c r="D535" t="n">
-        <v>-9.176494501769822</v>
+        <v>-4.588247250884911</v>
       </c>
     </row>
     <row r="536">
@@ -7942,7 +7942,7 @@
         <v>67.74787139444311</v>
       </c>
       <c r="D536" t="n">
-        <v>-8.787270271016753</v>
+        <v>-4.393635135508377</v>
       </c>
     </row>
     <row r="537">
@@ -7956,7 +7956,7 @@
         <v>74.43804532732034</v>
       </c>
       <c r="D537" t="n">
-        <v>-8.43254567034802</v>
+        <v>-4.21627283517401</v>
       </c>
     </row>
     <row r="538">
@@ -7970,7 +7970,7 @@
         <v>81.16277445475737</v>
       </c>
       <c r="D538" t="n">
-        <v>-8.107153662616049</v>
+        <v>-4.053576831308025</v>
       </c>
     </row>
     <row r="539">
@@ -7984,7 +7984,7 @@
         <v>87.91412954470317</v>
       </c>
       <c r="D539" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="540">
@@ -7998,7 +7998,7 @@
         <v>94.68641529479986</v>
       </c>
       <c r="D540" t="n">
-        <v>-7.528493481274289</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="541">
@@ -8012,7 +8012,7 @@
         <v>101.4754411693942</v>
       </c>
       <c r="D541" t="n">
-        <v>-7.269078160270714</v>
+        <v>-3.634539080135357</v>
       </c>
     </row>
     <row r="542">
@@ -8026,7 +8026,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D542" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="543">
@@ -8040,7 +8040,7 @@
         <v>96.18155642056105</v>
       </c>
       <c r="D543" t="n">
-        <v>-7.469764815047496</v>
+        <v>-3.734882407523748</v>
       </c>
     </row>
     <row r="544">
@@ -8054,7 +8054,7 @@
         <v>89.52244817756669</v>
       </c>
       <c r="D544" t="n">
-        <v>-7.738872673812097</v>
+        <v>-3.869436336906049</v>
       </c>
     </row>
     <row r="545">
@@ -8068,7 +8068,7 @@
         <v>82.90217434600902</v>
       </c>
       <c r="D545" t="n">
-        <v>-8.027442031693891</v>
+        <v>-4.013721015846945</v>
       </c>
     </row>
     <row r="546">
@@ -8082,7 +8082,7 @@
         <v>76.33084007302985</v>
       </c>
       <c r="D546" t="n">
-        <v>-8.338035728513322</v>
+        <v>-4.169017864256661</v>
       </c>
     </row>
     <row r="547">
@@ -8096,7 +8096,7 @@
         <v>69.82226459074685</v>
       </c>
       <c r="D547" t="n">
-        <v>-8.673624141936386</v>
+        <v>-4.336812070968193</v>
       </c>
     </row>
     <row r="548">
@@ -8110,7 +8110,7 @@
         <v>63.39578038224219</v>
       </c>
       <c r="D548" t="n">
-        <v>-9.037586415665334</v>
+        <v>-4.518793207832667</v>
       </c>
     </row>
     <row r="549">
@@ -8124,7 +8124,7 @@
         <v>57.07912192154085</v>
       </c>
       <c r="D549" t="n">
-        <v>-9.433605213626109</v>
+        <v>-4.716802606813054</v>
       </c>
     </row>
     <row r="550">
@@ -8138,7 +8138,7 @@
         <v>50.91318296632207</v>
       </c>
       <c r="D550" t="n">
-        <v>-9.865297299345757</v>
+        <v>-4.932648649672879</v>
       </c>
     </row>
     <row r="551">
@@ -8152,7 +8152,7 @@
         <v>44.96001658760447</v>
       </c>
       <c r="D551" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="552">
@@ -8166,7 +8166,7 @@
         <v>39.31639396893579</v>
       </c>
       <c r="D552" t="n">
-        <v>-10.84242615947277</v>
+        <v>-5.421213079736387</v>
       </c>
     </row>
     <row r="553">
@@ -8180,7 +8180,7 @@
         <v>34.13618943659194</v>
       </c>
       <c r="D553" t="n">
-        <v>-11.37694872095866</v>
+        <v>-5.68847436047933</v>
       </c>
     </row>
     <row r="554">
@@ -8194,7 +8194,7 @@
         <v>29.66319057600905</v>
       </c>
       <c r="D554" t="n">
-        <v>-11.90853165079303</v>
+        <v>-5.954265825396513</v>
       </c>
     </row>
     <row r="555">
@@ -8208,7 +8208,7 @@
         <v>26.2612865719445</v>
       </c>
       <c r="D555" t="n">
-        <v>-12.36969389949508</v>
+        <v>-6.184846949747541</v>
       </c>
     </row>
     <row r="556">
@@ -8222,7 +8222,7 @@
         <v>24.38299245470852</v>
       </c>
       <c r="D556" t="n">
-        <v>-12.65069105465253</v>
+        <v>-6.325345527326264</v>
       </c>
     </row>
     <row r="557">
@@ -8236,7 +8236,7 @@
         <v>24.38299245470852</v>
       </c>
       <c r="D557" t="n">
-        <v>-12.65069105465253</v>
+        <v>-6.325345527326265</v>
       </c>
     </row>
     <row r="558">
@@ -8250,7 +8250,7 @@
         <v>26.2612865719445</v>
       </c>
       <c r="D558" t="n">
-        <v>-12.36969389949508</v>
+        <v>-6.184846949747542</v>
       </c>
     </row>
     <row r="559">
@@ -8264,7 +8264,7 @@
         <v>29.66319057600905</v>
       </c>
       <c r="D559" t="n">
-        <v>-11.90853165079303</v>
+        <v>-5.954265825396513</v>
       </c>
     </row>
     <row r="560">
@@ -8278,7 +8278,7 @@
         <v>34.13618943659193</v>
       </c>
       <c r="D560" t="n">
-        <v>-11.37694872095866</v>
+        <v>-5.688474360479331</v>
       </c>
     </row>
     <row r="561">
@@ -8292,7 +8292,7 @@
         <v>39.31639396893576</v>
       </c>
       <c r="D561" t="n">
-        <v>-10.84242615947278</v>
+        <v>-5.421213079736388</v>
       </c>
     </row>
     <row r="562">
@@ -8306,7 +8306,7 @@
         <v>44.96001658760446</v>
       </c>
       <c r="D562" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="563">
@@ -8320,7 +8320,7 @@
         <v>50.91318296632205</v>
       </c>
       <c r="D563" t="n">
-        <v>-9.865297299345759</v>
+        <v>-4.932648649672879</v>
       </c>
     </row>
     <row r="564">
@@ -8334,7 +8334,7 @@
         <v>57.07912192154085</v>
       </c>
       <c r="D564" t="n">
-        <v>-9.433605213626111</v>
+        <v>-4.716802606813055</v>
       </c>
     </row>
     <row r="565">
@@ -8348,7 +8348,7 @@
         <v>63.39578038224219</v>
       </c>
       <c r="D565" t="n">
-        <v>-9.037586415665334</v>
+        <v>-4.518793207832667</v>
       </c>
     </row>
     <row r="566">
@@ -8362,7 +8362,7 @@
         <v>69.82226459074685</v>
       </c>
       <c r="D566" t="n">
-        <v>-8.673624141936386</v>
+        <v>-4.336812070968193</v>
       </c>
     </row>
     <row r="567">
@@ -8376,7 +8376,7 @@
         <v>76.33084007302983</v>
       </c>
       <c r="D567" t="n">
-        <v>-8.338035728513324</v>
+        <v>-4.169017864256662</v>
       </c>
     </row>
     <row r="568">
@@ -8390,7 +8390,7 @@
         <v>82.90217434600901</v>
       </c>
       <c r="D568" t="n">
-        <v>-8.027442031693893</v>
+        <v>-4.013721015846946</v>
       </c>
     </row>
     <row r="569">
@@ -8404,7 +8404,7 @@
         <v>89.52244817756667</v>
       </c>
       <c r="D569" t="n">
-        <v>-7.738872673812097</v>
+        <v>-3.869436336906049</v>
       </c>
     </row>
     <row r="570">
@@ -8418,7 +8418,7 @@
         <v>96.18155642056105</v>
       </c>
       <c r="D570" t="n">
-        <v>-7.469764815047496</v>
+        <v>-3.734882407523748</v>
       </c>
     </row>
     <row r="571">
@@ -8432,7 +8432,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D571" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="572">
@@ -8446,7 +8446,7 @@
         <v>104.7050100047516</v>
       </c>
       <c r="D572" t="n">
-        <v>-7.151848034620062</v>
+        <v>-3.575924017310031</v>
       </c>
     </row>
     <row r="573">
@@ -8460,7 +8460,7 @@
         <v>98.13965152246693</v>
       </c>
       <c r="D573" t="n">
-        <v>-7.39424715098176</v>
+        <v>-3.69712357549088</v>
       </c>
     </row>
     <row r="574">
@@ -8474,7 +8474,7 @@
         <v>91.62296727990636</v>
       </c>
       <c r="D574" t="n">
-        <v>-7.651840771095009</v>
+        <v>-3.825920385547505</v>
       </c>
     </row>
     <row r="575">
@@ -8488,7 +8488,7 @@
         <v>85.16613127743771</v>
       </c>
       <c r="D575" t="n">
-        <v>-7.926200517992883</v>
+        <v>-3.963100258996441</v>
       </c>
     </row>
     <row r="576">
@@ -8502,7 +8502,7 @@
         <v>78.78385971583354</v>
       </c>
       <c r="D576" t="n">
-        <v>-8.219027923564111</v>
+        <v>-4.109513961782056</v>
       </c>
     </row>
     <row r="577">
@@ -8516,7 +8516,7 @@
         <v>72.49584841940909</v>
       </c>
       <c r="D577" t="n">
-        <v>-8.532087821702946</v>
+        <v>-4.266043910851473</v>
       </c>
     </row>
     <row r="578">
@@ -8530,7 +8530,7 @@
         <v>66.32891055748739</v>
       </c>
       <c r="D578" t="n">
-        <v>-8.867053281599622</v>
+        <v>-4.433526640799811</v>
       </c>
     </row>
     <row r="579">
@@ -8544,7 +8544,7 @@
         <v>60.32019201564103</v>
       </c>
       <c r="D579" t="n">
-        <v>-9.225178650194977</v>
+        <v>-4.612589325097488</v>
       </c>
     </row>
     <row r="580">
@@ -8558,7 +8558,7 @@
         <v>54.52202862359274</v>
       </c>
       <c r="D580" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="581">
@@ -8572,7 +8572,7 @@
         <v>49.00920828810997</v>
       </c>
       <c r="D581" t="n">
-        <v>-10.00929692887849</v>
+        <v>-5.004648464439247</v>
       </c>
     </row>
     <row r="582">
@@ -8586,7 +8586,7 @@
         <v>43.88938641847535</v>
       </c>
       <c r="D582" t="n">
-        <v>-10.42633189867162</v>
+        <v>-5.21316594933581</v>
       </c>
     </row>
     <row r="583">
@@ -8600,7 +8600,7 @@
         <v>39.31639396893578</v>
       </c>
       <c r="D583" t="n">
-        <v>-10.84242615947278</v>
+        <v>-5.421213079736388</v>
       </c>
     </row>
     <row r="584">
@@ -8614,7 +8614,7 @@
         <v>35.50217289995516</v>
       </c>
       <c r="D584" t="n">
-        <v>-11.22848282603682</v>
+        <v>-5.614241413018408</v>
       </c>
     </row>
     <row r="585">
@@ -8628,7 +8628,7 @@
         <v>32.71321717415563</v>
       </c>
       <c r="D585" t="n">
-        <v>-11.53808294481789</v>
+        <v>-5.769041472408943</v>
       </c>
     </row>
     <row r="586">
@@ -8642,7 +8642,7 @@
         <v>31.22546599357728</v>
       </c>
       <c r="D586" t="n">
-        <v>-11.71424709517223</v>
+        <v>-5.857123547586116</v>
       </c>
     </row>
     <row r="587">
@@ -8656,7 +8656,7 @@
         <v>31.22546599357728</v>
       </c>
       <c r="D587" t="n">
-        <v>-11.71424709517223</v>
+        <v>-5.857123547586116</v>
       </c>
     </row>
     <row r="588">
@@ -8670,7 +8670,7 @@
         <v>32.71321717415562</v>
       </c>
       <c r="D588" t="n">
-        <v>-11.53808294481789</v>
+        <v>-5.769041472408943</v>
       </c>
     </row>
     <row r="589">
@@ -8684,7 +8684,7 @@
         <v>35.50217289995516</v>
       </c>
       <c r="D589" t="n">
-        <v>-11.22848282603682</v>
+        <v>-5.614241413018408</v>
       </c>
     </row>
     <row r="590">
@@ -8698,7 +8698,7 @@
         <v>39.31639396893576</v>
       </c>
       <c r="D590" t="n">
-        <v>-10.84242615947278</v>
+        <v>-5.421213079736388</v>
       </c>
     </row>
     <row r="591">
@@ -8712,7 +8712,7 @@
         <v>43.88938641847533</v>
       </c>
       <c r="D591" t="n">
-        <v>-10.42633189867162</v>
+        <v>-5.213165949335811</v>
       </c>
     </row>
     <row r="592">
@@ -8726,7 +8726,7 @@
         <v>49.00920828810996</v>
       </c>
       <c r="D592" t="n">
-        <v>-10.0092969288785</v>
+        <v>-5.004648464439248</v>
       </c>
     </row>
     <row r="593">
@@ -8740,7 +8740,7 @@
         <v>54.52202862359272</v>
       </c>
       <c r="D593" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="594">
@@ -8754,7 +8754,7 @@
         <v>60.32019201564102</v>
       </c>
       <c r="D594" t="n">
-        <v>-9.225178650194978</v>
+        <v>-4.612589325097489</v>
       </c>
     </row>
     <row r="595">
@@ -8768,7 +8768,7 @@
         <v>66.32891055748739</v>
       </c>
       <c r="D595" t="n">
-        <v>-8.867053281599622</v>
+        <v>-4.433526640799811</v>
       </c>
     </row>
     <row r="596">
@@ -8782,7 +8782,7 @@
         <v>72.49584841940909</v>
       </c>
       <c r="D596" t="n">
-        <v>-8.532087821702946</v>
+        <v>-4.266043910851473</v>
       </c>
     </row>
     <row r="597">
@@ -8796,7 +8796,7 @@
         <v>78.78385971583351</v>
       </c>
       <c r="D597" t="n">
-        <v>-8.219027923564113</v>
+        <v>-4.109513961782056</v>
       </c>
     </row>
     <row r="598">
@@ -8810,7 +8810,7 @@
         <v>85.1661312774377</v>
       </c>
       <c r="D598" t="n">
-        <v>-7.926200517992885</v>
+        <v>-3.963100258996442</v>
       </c>
     </row>
     <row r="599">
@@ -8824,7 +8824,7 @@
         <v>91.62296727990635</v>
       </c>
       <c r="D599" t="n">
-        <v>-7.651840771095009</v>
+        <v>-3.825920385547505</v>
       </c>
     </row>
     <row r="600">
@@ -8838,7 +8838,7 @@
         <v>98.13965152246693</v>
       </c>
       <c r="D600" t="n">
-        <v>-7.39424715098176</v>
+        <v>-3.69712357549088</v>
       </c>
     </row>
     <row r="601">
@@ -8852,7 +8852,7 @@
         <v>104.7050100047516</v>
       </c>
       <c r="D601" t="n">
-        <v>-7.151848034620062</v>
+        <v>-3.575924017310031</v>
       </c>
     </row>
     <row r="602">
@@ -8866,7 +8866,7 @@
         <v>106.9521546156608</v>
       </c>
       <c r="D602" t="n">
-        <v>-7.072447213416867</v>
+        <v>-3.536223606708433</v>
       </c>
     </row>
     <row r="603">
@@ -8880,7 +8880,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D603" t="n">
-        <v>-7.303985085654318</v>
+        <v>-3.651992542827159</v>
       </c>
     </row>
     <row r="604">
@@ -8894,7 +8894,7 @@
         <v>94.18276057757008</v>
       </c>
       <c r="D604" t="n">
-        <v>-7.548490395996806</v>
+        <v>-3.774245197998403</v>
       </c>
     </row>
     <row r="605">
@@ -8908,7 +8908,7 @@
         <v>87.91412954470317</v>
       </c>
       <c r="D605" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="606">
@@ -8922,7 +8922,7 @@
         <v>81.74668683537723</v>
       </c>
       <c r="D606" t="n">
-        <v>-8.080202733368765</v>
+        <v>-4.040101366684382</v>
       </c>
     </row>
     <row r="607">
@@ -8936,7 +8936,7 @@
         <v>75.70516689689705</v>
       </c>
       <c r="D607" t="n">
-        <v>-8.369011111196038</v>
+        <v>-4.184505555598019</v>
       </c>
     </row>
     <row r="608">
@@ -8950,7 +8950,7 @@
         <v>69.82226459074684</v>
       </c>
       <c r="D608" t="n">
-        <v>-8.673624141936388</v>
+        <v>-4.336812070968194</v>
       </c>
     </row>
     <row r="609">
@@ -8964,7 +8964,7 @@
         <v>64.14163875082163</v>
       </c>
       <c r="D609" t="n">
-        <v>-8.993477931708352</v>
+        <v>-4.496738965854176</v>
       </c>
     </row>
     <row r="610">
@@ -8978,7 +8978,7 @@
         <v>58.72202195147034</v>
       </c>
       <c r="D610" t="n">
-        <v>-9.32650382669563</v>
+        <v>-4.663251913347815</v>
       </c>
     </row>
     <row r="611">
@@ -8992,7 +8992,7 @@
         <v>53.64258340035877</v>
       </c>
       <c r="D611" t="n">
-        <v>-9.668052250498436</v>
+        <v>-4.834026125249218</v>
       </c>
     </row>
     <row r="612">
@@ -9006,7 +9006,7 @@
         <v>49.00920828810997</v>
       </c>
       <c r="D612" t="n">
-        <v>-10.00929692887849</v>
+        <v>-5.004648464439247</v>
       </c>
     </row>
     <row r="613">
@@ -9020,7 +9020,7 @@
         <v>44.96001658760446</v>
       </c>
       <c r="D613" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="614">
@@ -9034,7 +9034,7 @@
         <v>41.66567577101576</v>
       </c>
       <c r="D614" t="n">
-        <v>-10.62293272671636</v>
+        <v>-5.311466363358178</v>
       </c>
     </row>
     <row r="615">
@@ -9048,7 +9048,7 @@
         <v>39.31639396893578</v>
       </c>
       <c r="D615" t="n">
-        <v>-10.84242615947278</v>
+        <v>-5.421213079736388</v>
       </c>
     </row>
     <row r="616">
@@ -9062,7 +9062,7 @@
         <v>38.08745178340433</v>
       </c>
       <c r="D616" t="n">
-        <v>-10.96255074536657</v>
+        <v>-5.481275372683283</v>
       </c>
     </row>
     <row r="617">
@@ -9076,7 +9076,7 @@
         <v>38.08745178340433</v>
       </c>
       <c r="D617" t="n">
-        <v>-10.96255074536657</v>
+        <v>-5.481275372683283</v>
       </c>
     </row>
     <row r="618">
@@ -9090,7 +9090,7 @@
         <v>39.31639396893578</v>
       </c>
       <c r="D618" t="n">
-        <v>-10.84242615947278</v>
+        <v>-5.421213079736388</v>
       </c>
     </row>
     <row r="619">
@@ -9104,7 +9104,7 @@
         <v>41.66567577101576</v>
       </c>
       <c r="D619" t="n">
-        <v>-10.62293272671636</v>
+        <v>-5.311466363358178</v>
       </c>
     </row>
     <row r="620">
@@ -9118,7 +9118,7 @@
         <v>44.96001658760446</v>
       </c>
       <c r="D620" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="621">
@@ -9132,7 +9132,7 @@
         <v>49.00920828810996</v>
       </c>
       <c r="D621" t="n">
-        <v>-10.0092969288785</v>
+        <v>-5.004648464439248</v>
       </c>
     </row>
     <row r="622">
@@ -9146,7 +9146,7 @@
         <v>53.64258340035876</v>
       </c>
       <c r="D622" t="n">
-        <v>-9.668052250498436</v>
+        <v>-4.834026125249218</v>
       </c>
     </row>
     <row r="623">
@@ -9160,7 +9160,7 @@
         <v>58.72202195147033</v>
       </c>
       <c r="D623" t="n">
-        <v>-9.326503826695632</v>
+        <v>-4.663251913347816</v>
       </c>
     </row>
     <row r="624">
@@ -9174,7 +9174,7 @@
         <v>64.14163875082163</v>
       </c>
       <c r="D624" t="n">
-        <v>-8.993477931708352</v>
+        <v>-4.496738965854176</v>
       </c>
     </row>
     <row r="625">
@@ -9188,7 +9188,7 @@
         <v>69.82226459074684</v>
       </c>
       <c r="D625" t="n">
-        <v>-8.673624141936388</v>
+        <v>-4.336812070968194</v>
       </c>
     </row>
     <row r="626">
@@ -9202,7 +9202,7 @@
         <v>75.70516689689705</v>
       </c>
       <c r="D626" t="n">
-        <v>-8.369011111196038</v>
+        <v>-4.184505555598019</v>
       </c>
     </row>
     <row r="627">
@@ -9216,7 +9216,7 @@
         <v>81.7466868353772</v>
       </c>
       <c r="D627" t="n">
-        <v>-8.080202733368765</v>
+        <v>-4.040101366684382</v>
       </c>
     </row>
     <row r="628">
@@ -9230,7 +9230,7 @@
         <v>87.91412954470317</v>
       </c>
       <c r="D628" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="629">
@@ -9244,7 +9244,7 @@
         <v>94.18276057757008</v>
       </c>
       <c r="D629" t="n">
-        <v>-7.548490395996806</v>
+        <v>-3.774245197998403</v>
       </c>
     </row>
     <row r="630">
@@ -9258,7 +9258,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D630" t="n">
-        <v>-7.303985085654318</v>
+        <v>-3.651992542827159</v>
       </c>
     </row>
     <row r="631">
@@ -9272,7 +9272,7 @@
         <v>106.9521546156608</v>
       </c>
       <c r="D631" t="n">
-        <v>-7.072447213416867</v>
+        <v>-3.536223606708433</v>
       </c>
     </row>
     <row r="632">
@@ -9286,7 +9286,7 @@
         <v>109.58792125566</v>
       </c>
       <c r="D632" t="n">
-        <v>-6.981470428803291</v>
+        <v>-3.490735214401646</v>
       </c>
     </row>
     <row r="633">
@@ -9300,7 +9300,7 @@
         <v>103.333269405322</v>
       </c>
       <c r="D633" t="n">
-        <v>-7.201181524244215</v>
+        <v>-3.600590762122108</v>
       </c>
     </row>
     <row r="634">
@@ -9314,7 +9314,7 @@
         <v>97.16553657658876</v>
       </c>
       <c r="D634" t="n">
-        <v>-7.431621239967675</v>
+        <v>-3.715810619983837</v>
       </c>
     </row>
     <row r="635">
@@ -9328,7 +9328,7 @@
         <v>91.10237802498555</v>
       </c>
       <c r="D635" t="n">
-        <v>-7.673219546179494</v>
+        <v>-3.836609773089747</v>
       </c>
     </row>
     <row r="636">
@@ -9342,7 +9342,7 @@
         <v>85.16613127743771</v>
       </c>
       <c r="D636" t="n">
-        <v>-7.926200517992883</v>
+        <v>-3.963100258996441</v>
       </c>
     </row>
     <row r="637">
@@ -9356,7 +9356,7 @@
         <v>79.38527195325061</v>
       </c>
       <c r="D637" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="638">
@@ -9370,7 +9370,7 @@
         <v>73.79632606562998</v>
       </c>
       <c r="D638" t="n">
-        <v>-8.465141314405509</v>
+        <v>-4.232570657202754</v>
       </c>
     </row>
     <row r="639">
@@ -9384,7 +9384,7 @@
         <v>68.44632152165244</v>
       </c>
       <c r="D639" t="n">
-        <v>-8.748617204330396</v>
+        <v>-4.374308602165198</v>
       </c>
     </row>
     <row r="640">
@@ -9398,7 +9398,7 @@
         <v>63.39578038224219</v>
       </c>
       <c r="D640" t="n">
-        <v>-9.037586415665334</v>
+        <v>-4.518793207832667</v>
       </c>
     </row>
     <row r="641">
@@ -9412,7 +9412,7 @@
         <v>58.72202195147034</v>
       </c>
       <c r="D641" t="n">
-        <v>-9.32650382669563</v>
+        <v>-4.663251913347815</v>
       </c>
     </row>
     <row r="642">
@@ -9426,7 +9426,7 @@
         <v>54.52202862359274</v>
       </c>
       <c r="D642" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="643">
@@ -9440,7 +9440,7 @@
         <v>50.91318296632206</v>
       </c>
       <c r="D643" t="n">
-        <v>-9.865297299345757</v>
+        <v>-4.932648649672879</v>
       </c>
     </row>
     <row r="644">
@@ -9454,7 +9454,7 @@
         <v>48.02892509373833</v>
       </c>
       <c r="D644" t="n">
-        <v>-10.08564668705603</v>
+        <v>-5.042823343528013</v>
       </c>
     </row>
     <row r="645">
@@ -9468,7 +9468,7 @@
         <v>46.00573815215976</v>
       </c>
       <c r="D645" t="n">
-        <v>-10.24830383264385</v>
+        <v>-5.124151916321926</v>
       </c>
     </row>
     <row r="646">
@@ -9482,7 +9482,7 @@
         <v>44.96001658760446</v>
       </c>
       <c r="D646" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="647">
@@ -9496,7 +9496,7 @@
         <v>44.96001658760446</v>
       </c>
       <c r="D647" t="n">
-        <v>-10.33521760570668</v>
+        <v>-5.167608802853338</v>
       </c>
     </row>
     <row r="648">
@@ -9510,7 +9510,7 @@
         <v>46.00573815215976</v>
       </c>
       <c r="D648" t="n">
-        <v>-10.24830383264385</v>
+        <v>-5.124151916321926</v>
       </c>
     </row>
     <row r="649">
@@ -9524,7 +9524,7 @@
         <v>48.02892509373833</v>
       </c>
       <c r="D649" t="n">
-        <v>-10.08564668705603</v>
+        <v>-5.042823343528013</v>
       </c>
     </row>
     <row r="650">
@@ -9538,7 +9538,7 @@
         <v>50.91318296632205</v>
       </c>
       <c r="D650" t="n">
-        <v>-9.865297299345759</v>
+        <v>-4.932648649672879</v>
       </c>
     </row>
     <row r="651">
@@ -9552,7 +9552,7 @@
         <v>54.52202862359272</v>
       </c>
       <c r="D651" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="652">
@@ -9566,7 +9566,7 @@
         <v>58.72202195147033</v>
       </c>
       <c r="D652" t="n">
-        <v>-9.326503826695632</v>
+        <v>-4.663251913347816</v>
       </c>
     </row>
     <row r="653">
@@ -9580,7 +9580,7 @@
         <v>63.39578038224217</v>
       </c>
       <c r="D653" t="n">
-        <v>-9.037586415665336</v>
+        <v>-4.518793207832668</v>
       </c>
     </row>
     <row r="654">
@@ -9594,7 +9594,7 @@
         <v>68.44632152165242</v>
       </c>
       <c r="D654" t="n">
-        <v>-8.748617204330397</v>
+        <v>-4.374308602165199</v>
       </c>
     </row>
     <row r="655">
@@ -9608,7 +9608,7 @@
         <v>73.79632606562998</v>
       </c>
       <c r="D655" t="n">
-        <v>-8.465141314405509</v>
+        <v>-4.232570657202754</v>
       </c>
     </row>
     <row r="656">
@@ -9622,7 +9622,7 @@
         <v>79.38527195325061</v>
       </c>
       <c r="D656" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="657">
@@ -9636,7 +9636,7 @@
         <v>85.1661312774377</v>
       </c>
       <c r="D657" t="n">
-        <v>-7.926200517992885</v>
+        <v>-3.963100258996442</v>
       </c>
     </row>
     <row r="658">
@@ -9650,7 +9650,7 @@
         <v>91.10237802498555</v>
       </c>
       <c r="D658" t="n">
-        <v>-7.673219546179494</v>
+        <v>-3.836609773089747</v>
       </c>
     </row>
     <row r="659">
@@ -9664,7 +9664,7 @@
         <v>97.16553657658875</v>
       </c>
       <c r="D659" t="n">
-        <v>-7.431621239967677</v>
+        <v>-3.715810619983838</v>
       </c>
     </row>
     <row r="660">
@@ -9678,7 +9678,7 @@
         <v>103.333269405322</v>
       </c>
       <c r="D660" t="n">
-        <v>-7.201181524244215</v>
+        <v>-3.600590762122108</v>
       </c>
     </row>
     <row r="661">
@@ -9692,7 +9692,7 @@
         <v>109.58792125566</v>
       </c>
       <c r="D661" t="n">
-        <v>-6.981470428803291</v>
+        <v>-3.490735214401646</v>
       </c>
     </row>
     <row r="662">
@@ -9706,7 +9706,7 @@
         <v>112.5850187401001</v>
       </c>
       <c r="D662" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="663">
@@ -9720,7 +9720,7 @@
         <v>106.5065186998655</v>
       </c>
       <c r="D663" t="n">
-        <v>-7.088056333958468</v>
+        <v>-3.544028166979234</v>
       </c>
     </row>
     <row r="664">
@@ -9734,7 +9734,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D664" t="n">
-        <v>-7.303985085654316</v>
+        <v>-3.651992542827158</v>
       </c>
     </row>
     <row r="665">
@@ -9748,7 +9748,7 @@
         <v>94.68641529479987</v>
       </c>
       <c r="D665" t="n">
-        <v>-7.528493481274287</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="666">
@@ -9762,7 +9762,7 @@
         <v>88.98957172802717</v>
       </c>
       <c r="D666" t="n">
-        <v>-7.761282697439376</v>
+        <v>-3.880641348719688</v>
       </c>
     </row>
     <row r="667">
@@ -9776,7 +9776,7 @@
         <v>83.47392025455314</v>
       </c>
       <c r="D667" t="n">
-        <v>-8.00161129387774</v>
+        <v>-4.00080564693887</v>
       </c>
     </row>
     <row r="668">
@@ -9790,7 +9790,7 @@
         <v>78.17782102589402</v>
       </c>
       <c r="D668" t="n">
-        <v>-8.248076528949818</v>
+        <v>-4.124038264474909</v>
       </c>
     </row>
     <row r="669">
@@ -9804,7 +9804,7 @@
         <v>73.1489773641256</v>
       </c>
       <c r="D669" t="n">
-        <v>-8.498315117126994</v>
+        <v>-4.249157558563497</v>
       </c>
     </row>
     <row r="670">
@@ -9818,7 +9818,7 @@
         <v>68.44632152165244</v>
       </c>
       <c r="D670" t="n">
-        <v>-8.748617204330396</v>
+        <v>-4.374308602165198</v>
       </c>
     </row>
     <row r="671">
@@ -9832,7 +9832,7 @@
         <v>64.14163875082164</v>
       </c>
       <c r="D671" t="n">
-        <v>-8.99347793170835</v>
+        <v>-4.496738965854175</v>
       </c>
     </row>
     <row r="672">
@@ -9846,7 +9846,7 @@
         <v>60.32019201564103</v>
       </c>
       <c r="D672" t="n">
-        <v>-9.225178650194977</v>
+        <v>-4.612589325097488</v>
       </c>
     </row>
     <row r="673">
@@ -9860,7 +9860,7 @@
         <v>57.07912192154085</v>
       </c>
       <c r="D673" t="n">
-        <v>-9.433605213626109</v>
+        <v>-4.716802606813054</v>
       </c>
     </row>
     <row r="674">
@@ -9874,7 +9874,7 @@
         <v>54.52202862359274</v>
       </c>
       <c r="D674" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="675">
@@ -9888,7 +9888,7 @@
         <v>52.7484777268219</v>
       </c>
       <c r="D675" t="n">
-        <v>-9.731531497916588</v>
+        <v>-4.865765748958294</v>
       </c>
     </row>
     <row r="676">
@@ -9902,7 +9902,7 @@
         <v>51.83895302887209</v>
       </c>
       <c r="D676" t="n">
-        <v>-9.797226596870965</v>
+        <v>-4.898613298435483</v>
       </c>
     </row>
     <row r="677">
@@ -9916,7 +9916,7 @@
         <v>51.83895302887209</v>
       </c>
       <c r="D677" t="n">
-        <v>-9.797226596870965</v>
+        <v>-4.898613298435483</v>
       </c>
     </row>
     <row r="678">
@@ -9930,7 +9930,7 @@
         <v>52.7484777268219</v>
       </c>
       <c r="D678" t="n">
-        <v>-9.731531497916588</v>
+        <v>-4.865765748958294</v>
       </c>
     </row>
     <row r="679">
@@ -9944,7 +9944,7 @@
         <v>54.52202862359274</v>
       </c>
       <c r="D679" t="n">
-        <v>-9.606644693977927</v>
+        <v>-4.803322346988963</v>
       </c>
     </row>
     <row r="680">
@@ -9958,7 +9958,7 @@
         <v>57.07912192154085</v>
       </c>
       <c r="D680" t="n">
-        <v>-9.433605213626111</v>
+        <v>-4.716802606813055</v>
       </c>
     </row>
     <row r="681">
@@ -9972,7 +9972,7 @@
         <v>60.32019201564102</v>
       </c>
       <c r="D681" t="n">
-        <v>-9.225178650194978</v>
+        <v>-4.612589325097489</v>
       </c>
     </row>
     <row r="682">
@@ -9986,7 +9986,7 @@
         <v>64.14163875082163</v>
       </c>
       <c r="D682" t="n">
-        <v>-8.993477931708352</v>
+        <v>-4.496738965854176</v>
       </c>
     </row>
     <row r="683">
@@ -10000,7 +10000,7 @@
         <v>68.44632152165242</v>
       </c>
       <c r="D683" t="n">
-        <v>-8.748617204330397</v>
+        <v>-4.374308602165199</v>
       </c>
     </row>
     <row r="684">
@@ -10014,7 +10014,7 @@
         <v>73.1489773641256</v>
       </c>
       <c r="D684" t="n">
-        <v>-8.498315117126994</v>
+        <v>-4.249157558563497</v>
       </c>
     </row>
     <row r="685">
@@ -10028,7 +10028,7 @@
         <v>78.17782102589402</v>
       </c>
       <c r="D685" t="n">
-        <v>-8.248076528949818</v>
+        <v>-4.124038264474909</v>
       </c>
     </row>
     <row r="686">
@@ -10042,7 +10042,7 @@
         <v>83.47392025455314</v>
       </c>
       <c r="D686" t="n">
-        <v>-8.00161129387774</v>
+        <v>-4.00080564693887</v>
       </c>
     </row>
     <row r="687">
@@ -10056,7 +10056,7 @@
         <v>88.98957172802716</v>
       </c>
       <c r="D687" t="n">
-        <v>-7.761282697439378</v>
+        <v>-3.880641348719689</v>
       </c>
     </row>
     <row r="688">
@@ -10070,7 +10070,7 @@
         <v>94.68641529479986</v>
       </c>
       <c r="D688" t="n">
-        <v>-7.528493481274289</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="689">
@@ -10084,7 +10084,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D689" t="n">
-        <v>-7.303985085654318</v>
+        <v>-3.651992542827159</v>
       </c>
     </row>
     <row r="690">
@@ -10098,7 +10098,7 @@
         <v>106.5065186998655</v>
       </c>
       <c r="D690" t="n">
-        <v>-7.088056333958468</v>
+        <v>-3.544028166979234</v>
       </c>
     </row>
     <row r="691">
@@ -10112,7 +10112,7 @@
         <v>112.5850187401001</v>
       </c>
       <c r="D691" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="692">
@@ -10126,7 +10126,7 @@
         <v>115.9154228549766</v>
       </c>
       <c r="D692" t="n">
-        <v>-6.771951579829506</v>
+        <v>-3.385975789914753</v>
       </c>
     </row>
     <row r="693">
@@ -10140,7 +10140,7 @@
         <v>110.0210767830608</v>
       </c>
       <c r="D693" t="n">
-        <v>-6.966735045164554</v>
+        <v>-3.483367522582277</v>
       </c>
     </row>
     <row r="694">
@@ -10154,7 +10154,7 @@
         <v>104.2497686746964</v>
       </c>
       <c r="D694" t="n">
-        <v>-7.168146525526846</v>
+        <v>-3.584073262763423</v>
       </c>
     </row>
     <row r="695">
@@ -10168,7 +10168,7 @@
         <v>98.62310100741442</v>
       </c>
       <c r="D695" t="n">
-        <v>-7.375839186061325</v>
+        <v>-3.687919593030662</v>
       </c>
     </row>
     <row r="696">
@@ -10182,7 +10182,7 @@
         <v>93.16728335245723</v>
       </c>
       <c r="D696" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="697">
@@ -10196,7 +10196,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D697" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="698">
@@ -10210,7 +10210,7 @@
         <v>82.90217434600902</v>
       </c>
       <c r="D698" t="n">
-        <v>-8.027442031693891</v>
+        <v>-4.013721015846945</v>
       </c>
     </row>
     <row r="699">
@@ -10224,7 +10224,7 @@
         <v>78.17782102589402</v>
       </c>
       <c r="D699" t="n">
-        <v>-8.248076528949818</v>
+        <v>-4.124038264474909</v>
       </c>
     </row>
     <row r="700">
@@ -10238,7 +10238,7 @@
         <v>73.79632606562998</v>
       </c>
       <c r="D700" t="n">
-        <v>-8.465141314405509</v>
+        <v>-4.232570657202754</v>
       </c>
     </row>
     <row r="701">
@@ -10252,7 +10252,7 @@
         <v>69.82226459074685</v>
       </c>
       <c r="D701" t="n">
-        <v>-8.673624141936386</v>
+        <v>-4.336812070968193</v>
       </c>
     </row>
     <row r="702">
@@ -10266,7 +10266,7 @@
         <v>66.3289105574874</v>
       </c>
       <c r="D702" t="n">
-        <v>-8.86705328159962</v>
+        <v>-4.43352664079981</v>
       </c>
     </row>
     <row r="703">
@@ -10280,7 +10280,7 @@
         <v>63.39578038224219</v>
       </c>
       <c r="D703" t="n">
-        <v>-9.037586415665334</v>
+        <v>-4.518793207832667</v>
       </c>
     </row>
     <row r="704">
@@ -10294,7 +10294,7 @@
         <v>61.10360395403224</v>
       </c>
       <c r="D704" t="n">
-        <v>-9.176494501769822</v>
+        <v>-4.588247250884911</v>
       </c>
     </row>
     <row r="705">
@@ -10308,7 +10308,7 @@
         <v>59.526470695283</v>
       </c>
       <c r="D705" t="n">
-        <v>-9.275158253727076</v>
+        <v>-4.637579126863538</v>
       </c>
     </row>
     <row r="706">
@@ -10322,7 +10322,7 @@
         <v>58.72202195147035</v>
       </c>
       <c r="D706" t="n">
-        <v>-9.32650382669563</v>
+        <v>-4.663251913347815</v>
       </c>
     </row>
     <row r="707">
@@ -10336,7 +10336,7 @@
         <v>58.72202195147035</v>
       </c>
       <c r="D707" t="n">
-        <v>-9.32650382669563</v>
+        <v>-4.663251913347815</v>
       </c>
     </row>
     <row r="708">
@@ -10350,7 +10350,7 @@
         <v>59.526470695283</v>
       </c>
       <c r="D708" t="n">
-        <v>-9.275158253727076</v>
+        <v>-4.637579126863538</v>
       </c>
     </row>
     <row r="709">
@@ -10364,7 +10364,7 @@
         <v>61.10360395403224</v>
       </c>
       <c r="D709" t="n">
-        <v>-9.176494501769822</v>
+        <v>-4.588247250884911</v>
       </c>
     </row>
     <row r="710">
@@ -10378,7 +10378,7 @@
         <v>63.39578038224219</v>
       </c>
       <c r="D710" t="n">
-        <v>-9.037586415665334</v>
+        <v>-4.518793207832667</v>
       </c>
     </row>
     <row r="711">
@@ -10392,7 +10392,7 @@
         <v>66.32891055748739</v>
       </c>
       <c r="D711" t="n">
-        <v>-8.867053281599622</v>
+        <v>-4.433526640799811</v>
       </c>
     </row>
     <row r="712">
@@ -10406,7 +10406,7 @@
         <v>69.82226459074684</v>
       </c>
       <c r="D712" t="n">
-        <v>-8.673624141936388</v>
+        <v>-4.336812070968194</v>
       </c>
     </row>
     <row r="713">
@@ -10420,7 +10420,7 @@
         <v>73.79632606562998</v>
       </c>
       <c r="D713" t="n">
-        <v>-8.465141314405509</v>
+        <v>-4.232570657202754</v>
       </c>
     </row>
     <row r="714">
@@ -10434,7 +10434,7 @@
         <v>78.17782102589402</v>
       </c>
       <c r="D714" t="n">
-        <v>-8.248076528949818</v>
+        <v>-4.124038264474909</v>
       </c>
     </row>
     <row r="715">
@@ -10448,7 +10448,7 @@
         <v>82.90217434600902</v>
       </c>
       <c r="D715" t="n">
-        <v>-8.027442031693891</v>
+        <v>-4.013721015846945</v>
       </c>
     </row>
     <row r="716">
@@ -10462,7 +10462,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D716" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="717">
@@ -10476,7 +10476,7 @@
         <v>93.1672833524572</v>
       </c>
       <c r="D717" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="718">
@@ -10490,7 +10490,7 @@
         <v>98.62310100741442</v>
       </c>
       <c r="D718" t="n">
-        <v>-7.375839186061325</v>
+        <v>-3.687919593030662</v>
       </c>
     </row>
     <row r="719">
@@ -10504,7 +10504,7 @@
         <v>104.2497686746964</v>
       </c>
       <c r="D719" t="n">
-        <v>-7.168146525526846</v>
+        <v>-3.584073262763423</v>
       </c>
     </row>
     <row r="720">
@@ -10518,7 +10518,7 @@
         <v>110.0210767830608</v>
       </c>
       <c r="D720" t="n">
-        <v>-6.966735045164554</v>
+        <v>-3.483367522582277</v>
       </c>
     </row>
     <row r="721">
@@ -10532,7 +10532,7 @@
         <v>115.9154228549766</v>
       </c>
       <c r="D721" t="n">
-        <v>-6.771951579829506</v>
+        <v>-3.385975789914753</v>
       </c>
     </row>
     <row r="722">
@@ -10546,7 +10546,7 @@
         <v>119.5512815404118</v>
       </c>
       <c r="D722" t="n">
-        <v>-6.656832586043303</v>
+        <v>-3.328416293021652</v>
       </c>
     </row>
     <row r="723">
@@ -10560,7 +10560,7 @@
         <v>113.8453380635805</v>
       </c>
       <c r="D723" t="n">
-        <v>-6.839172076491775</v>
+        <v>-3.419586038245888</v>
       </c>
     </row>
     <row r="724">
@@ -10574,7 +10574,7 @@
         <v>108.2780584007419</v>
       </c>
       <c r="D724" t="n">
-        <v>-7.026397429019736</v>
+        <v>-3.513198714509868</v>
       </c>
     </row>
     <row r="725">
@@ -10588,7 +10588,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D725" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="726">
@@ -10602,7 +10602,7 @@
         <v>97.65380867935377</v>
       </c>
       <c r="D726" t="n">
-        <v>-7.412839933633313</v>
+        <v>-3.706419966816656</v>
       </c>
     </row>
     <row r="727">
@@ -10616,7 +10616,7 @@
         <v>92.65537132789244</v>
       </c>
       <c r="D727" t="n">
-        <v>-7.609807658140612</v>
+        <v>-3.804903829070306</v>
       </c>
     </row>
     <row r="728">
@@ -10630,7 +10630,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D728" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="729">
@@ -10644,7 +10644,7 @@
         <v>83.47392025455314</v>
       </c>
       <c r="D729" t="n">
-        <v>-8.00161129387774</v>
+        <v>-4.00080564693887</v>
       </c>
     </row>
     <row r="730">
@@ -10658,7 +10658,7 @@
         <v>79.38527195325061</v>
       </c>
       <c r="D730" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="731">
@@ -10672,7 +10672,7 @@
         <v>75.70516689689707</v>
       </c>
       <c r="D731" t="n">
-        <v>-8.369011111196038</v>
+        <v>-4.184505555598019</v>
       </c>
     </row>
     <row r="732">
@@ -10686,7 +10686,7 @@
         <v>72.4958484194091</v>
       </c>
       <c r="D732" t="n">
-        <v>-8.532087821702946</v>
+        <v>-4.266043910851473</v>
       </c>
     </row>
     <row r="733">
@@ -10700,7 +10700,7 @@
         <v>69.82226459074685</v>
       </c>
       <c r="D733" t="n">
-        <v>-8.673624141936386</v>
+        <v>-4.336812070968193</v>
       </c>
     </row>
     <row r="734">
@@ -10714,7 +10714,7 @@
         <v>67.74787139444311</v>
       </c>
       <c r="D734" t="n">
-        <v>-8.787270271016753</v>
+        <v>-4.393635135508377</v>
       </c>
     </row>
     <row r="735">
@@ -10728,7 +10728,7 @@
         <v>66.3289105574874</v>
       </c>
       <c r="D735" t="n">
-        <v>-8.86705328159962</v>
+        <v>-4.43352664079981</v>
       </c>
     </row>
     <row r="736">
@@ -10742,7 +10742,7 @@
         <v>65.60792272565672</v>
       </c>
       <c r="D736" t="n">
-        <v>-8.908255166975122</v>
+        <v>-4.454127583487561</v>
       </c>
     </row>
     <row r="737">
@@ -10756,7 +10756,7 @@
         <v>65.60792272565672</v>
       </c>
       <c r="D737" t="n">
-        <v>-8.908255166975122</v>
+        <v>-4.454127583487561</v>
       </c>
     </row>
     <row r="738">
@@ -10770,7 +10770,7 @@
         <v>66.32891055748739</v>
       </c>
       <c r="D738" t="n">
-        <v>-8.867053281599622</v>
+        <v>-4.433526640799811</v>
       </c>
     </row>
     <row r="739">
@@ -10784,7 +10784,7 @@
         <v>67.74787139444311</v>
       </c>
       <c r="D739" t="n">
-        <v>-8.787270271016753</v>
+        <v>-4.393635135508377</v>
       </c>
     </row>
     <row r="740">
@@ -10798,7 +10798,7 @@
         <v>69.82226459074685</v>
       </c>
       <c r="D740" t="n">
-        <v>-8.673624141936386</v>
+        <v>-4.336812070968193</v>
       </c>
     </row>
     <row r="741">
@@ -10812,7 +10812,7 @@
         <v>72.49584841940909</v>
       </c>
       <c r="D741" t="n">
-        <v>-8.532087821702946</v>
+        <v>-4.266043910851473</v>
       </c>
     </row>
     <row r="742">
@@ -10826,7 +10826,7 @@
         <v>75.70516689689705</v>
       </c>
       <c r="D742" t="n">
-        <v>-8.369011111196038</v>
+        <v>-4.184505555598019</v>
       </c>
     </row>
     <row r="743">
@@ -10840,7 +10840,7 @@
         <v>79.38527195325061</v>
       </c>
       <c r="D743" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="744">
@@ -10854,7 +10854,7 @@
         <v>83.47392025455314</v>
       </c>
       <c r="D744" t="n">
-        <v>-8.00161129387774</v>
+        <v>-4.00080564693887</v>
       </c>
     </row>
     <row r="745">
@@ -10868,7 +10868,7 @@
         <v>87.91412954470319</v>
       </c>
       <c r="D745" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="746">
@@ -10882,7 +10882,7 @@
         <v>92.65537132789244</v>
       </c>
       <c r="D746" t="n">
-        <v>-7.609807658140612</v>
+        <v>-3.804903829070306</v>
       </c>
     </row>
     <row r="747">
@@ -10896,7 +10896,7 @@
         <v>97.65380867935374</v>
       </c>
       <c r="D747" t="n">
-        <v>-7.412839933633315</v>
+        <v>-3.706419966816657</v>
       </c>
     </row>
     <row r="748">
@@ -10910,7 +10910,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D748" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="749">
@@ -10924,7 +10924,7 @@
         <v>108.2780584007419</v>
       </c>
       <c r="D749" t="n">
-        <v>-7.026397429019736</v>
+        <v>-3.513198714509868</v>
       </c>
     </row>
     <row r="750">
@@ -10938,7 +10938,7 @@
         <v>113.8453380635805</v>
       </c>
       <c r="D750" t="n">
-        <v>-6.839172076491775</v>
+        <v>-3.419586038245888</v>
       </c>
     </row>
     <row r="751">
@@ -10952,7 +10952,7 @@
         <v>119.5512815404118</v>
       </c>
       <c r="D751" t="n">
-        <v>-6.656832586043303</v>
+        <v>-3.328416293021652</v>
       </c>
     </row>
     <row r="752">
@@ -10966,7 +10966,7 @@
         <v>123.465612344608</v>
       </c>
       <c r="D752" t="n">
-        <v>-6.536875269040906</v>
+        <v>-3.268437634520453</v>
       </c>
     </row>
     <row r="753">
@@ -10980,7 +10980,7 @@
         <v>117.9491819068074</v>
       </c>
       <c r="D753" t="n">
-        <v>-6.707106398305463</v>
+        <v>-3.353553199152731</v>
       </c>
     </row>
     <row r="754">
@@ -10994,7 +10994,7 @@
         <v>112.5850187401</v>
       </c>
       <c r="D754" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="755">
@@ -11008,7 +11008,7 @@
         <v>107.3959413958444</v>
       </c>
       <c r="D755" t="n">
-        <v>-7.056969115347195</v>
+        <v>-3.528484557673598</v>
       </c>
     </row>
     <row r="756">
@@ -11022,7 +11022,7 @@
         <v>102.4085683097758</v>
       </c>
       <c r="D756" t="n">
-        <v>-7.234818059890458</v>
+        <v>-3.617409029945229</v>
       </c>
     </row>
     <row r="757">
@@ -11036,7 +11036,7 @@
         <v>97.65380867935374</v>
       </c>
       <c r="D757" t="n">
-        <v>-7.412839933633315</v>
+        <v>-3.706419966816657</v>
       </c>
     </row>
     <row r="758">
@@ -11050,7 +11050,7 @@
         <v>93.1672833524572</v>
       </c>
       <c r="D758" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="759">
@@ -11064,7 +11064,7 @@
         <v>88.98957172802716</v>
       </c>
       <c r="D759" t="n">
-        <v>-7.761282697439378</v>
+        <v>-3.880641348719689</v>
       </c>
     </row>
     <row r="760">
@@ -11078,7 +11078,7 @@
         <v>85.1661312774377</v>
       </c>
       <c r="D760" t="n">
-        <v>-7.926200517992885</v>
+        <v>-3.963100258996442</v>
       </c>
     </row>
     <row r="761">
@@ -11092,7 +11092,7 @@
         <v>81.74668683537722</v>
       </c>
       <c r="D761" t="n">
-        <v>-8.080202733368765</v>
+        <v>-4.040101366684382</v>
       </c>
     </row>
     <row r="762">
@@ -11106,7 +11106,7 @@
         <v>78.78385971583351</v>
       </c>
       <c r="D762" t="n">
-        <v>-8.219027923564113</v>
+        <v>-4.109513961782056</v>
       </c>
     </row>
     <row r="763">
@@ -11120,7 +11120,7 @@
         <v>76.33084007302983</v>
       </c>
       <c r="D763" t="n">
-        <v>-8.338035728513324</v>
+        <v>-4.169017864256662</v>
       </c>
     </row>
     <row r="764">
@@ -11134,7 +11134,7 @@
         <v>74.43804532732034</v>
       </c>
       <c r="D764" t="n">
-        <v>-8.43254567034802</v>
+        <v>-4.21627283517401</v>
       </c>
     </row>
     <row r="765">
@@ -11148,7 +11148,7 @@
         <v>73.14897736412559</v>
       </c>
       <c r="D765" t="n">
-        <v>-8.498315117126996</v>
+        <v>-4.249157558563498</v>
       </c>
     </row>
     <row r="766">
@@ -11162,7 +11162,7 @@
         <v>72.49584841940909</v>
       </c>
       <c r="D766" t="n">
-        <v>-8.532087821702946</v>
+        <v>-4.266043910851473</v>
       </c>
     </row>
     <row r="767">
@@ -11176,7 +11176,7 @@
         <v>72.49584841940909</v>
       </c>
       <c r="D767" t="n">
-        <v>-8.532087821702946</v>
+        <v>-4.266043910851473</v>
       </c>
     </row>
     <row r="768">
@@ -11190,7 +11190,7 @@
         <v>73.14897736412559</v>
       </c>
       <c r="D768" t="n">
-        <v>-8.498315117126996</v>
+        <v>-4.249157558563498</v>
       </c>
     </row>
     <row r="769">
@@ -11204,7 +11204,7 @@
         <v>74.43804532732034</v>
       </c>
       <c r="D769" t="n">
-        <v>-8.43254567034802</v>
+        <v>-4.21627283517401</v>
       </c>
     </row>
     <row r="770">
@@ -11218,7 +11218,7 @@
         <v>76.33084007302983</v>
       </c>
       <c r="D770" t="n">
-        <v>-8.338035728513324</v>
+        <v>-4.169017864256662</v>
       </c>
     </row>
     <row r="771">
@@ -11232,7 +11232,7 @@
         <v>78.78385971583351</v>
       </c>
       <c r="D771" t="n">
-        <v>-8.219027923564113</v>
+        <v>-4.109513961782056</v>
       </c>
     </row>
     <row r="772">
@@ -11246,7 +11246,7 @@
         <v>81.7466868353772</v>
       </c>
       <c r="D772" t="n">
-        <v>-8.080202733368765</v>
+        <v>-4.040101366684382</v>
       </c>
     </row>
     <row r="773">
@@ -11260,7 +11260,7 @@
         <v>85.1661312774377</v>
       </c>
       <c r="D773" t="n">
-        <v>-7.926200517992885</v>
+        <v>-3.963100258996442</v>
       </c>
     </row>
     <row r="774">
@@ -11274,7 +11274,7 @@
         <v>88.98957172802716</v>
       </c>
       <c r="D774" t="n">
-        <v>-7.761282697439378</v>
+        <v>-3.880641348719689</v>
       </c>
     </row>
     <row r="775">
@@ -11288,7 +11288,7 @@
         <v>93.1672833524572</v>
       </c>
       <c r="D775" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="776">
@@ -11302,7 +11302,7 @@
         <v>97.65380867935374</v>
       </c>
       <c r="D776" t="n">
-        <v>-7.412839933633315</v>
+        <v>-3.706419966816657</v>
       </c>
     </row>
     <row r="777">
@@ -11316,7 +11316,7 @@
         <v>102.4085683097758</v>
       </c>
       <c r="D777" t="n">
-        <v>-7.234818059890459</v>
+        <v>-3.61740902994523</v>
       </c>
     </row>
     <row r="778">
@@ -11330,7 +11330,7 @@
         <v>107.3959413958444</v>
       </c>
       <c r="D778" t="n">
-        <v>-7.056969115347195</v>
+        <v>-3.528484557673598</v>
       </c>
     </row>
     <row r="779">
@@ -11344,7 +11344,7 @@
         <v>112.5850187401</v>
       </c>
       <c r="D779" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="780">
@@ -11358,7 +11358,7 @@
         <v>117.9491819068074</v>
       </c>
       <c r="D780" t="n">
-        <v>-6.707106398305463</v>
+        <v>-3.353553199152731</v>
       </c>
     </row>
     <row r="781">
@@ -11372,7 +11372,7 @@
         <v>123.465612344608</v>
       </c>
       <c r="D781" t="n">
-        <v>-6.536875269040906</v>
+        <v>-3.268437634520453</v>
       </c>
     </row>
     <row r="782">
@@ -11386,7 +11386,7 @@
         <v>127.6327967125638</v>
       </c>
       <c r="D782" t="n">
-        <v>-6.413425379364228</v>
+        <v>-3.206712689682114</v>
       </c>
     </row>
     <row r="783">
@@ -11400,7 +11400,7 @@
         <v>122.3044679377117</v>
       </c>
       <c r="D783" t="n">
-        <v>-6.572043782566354</v>
+        <v>-3.286021891283177</v>
       </c>
     </row>
     <row r="784">
@@ -11414,7 +11414,7 @@
         <v>117.1399155273312</v>
       </c>
       <c r="D784" t="n">
-        <v>-6.732770029660179</v>
+        <v>-3.366385014830089</v>
       </c>
     </row>
     <row r="785">
@@ -11428,7 +11428,7 @@
         <v>112.1617652916593</v>
       </c>
       <c r="D785" t="n">
-        <v>-6.894777428208952</v>
+        <v>-3.447388714104476</v>
       </c>
     </row>
     <row r="786">
@@ -11442,7 +11442,7 @@
         <v>107.3959413958444</v>
       </c>
       <c r="D786" t="n">
-        <v>-7.056969115347195</v>
+        <v>-3.528484557673598</v>
       </c>
     </row>
     <row r="787">
@@ -11456,7 +11456,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D787" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="788">
@@ -11470,7 +11470,7 @@
         <v>98.62310100741442</v>
       </c>
       <c r="D788" t="n">
-        <v>-7.375839186061325</v>
+        <v>-3.687919593030662</v>
       </c>
     </row>
     <row r="789">
@@ -11484,7 +11484,7 @@
         <v>94.68641529479986</v>
       </c>
       <c r="D789" t="n">
-        <v>-7.528493481274289</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="790">
@@ -11498,7 +11498,7 @@
         <v>91.10237802498555</v>
       </c>
       <c r="D790" t="n">
-        <v>-7.673219546179494</v>
+        <v>-3.836609773089747</v>
       </c>
     </row>
     <row r="791">
@@ -11512,7 +11512,7 @@
         <v>87.91412954470317</v>
       </c>
       <c r="D791" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="792">
@@ -11526,7 +11526,7 @@
         <v>85.16613127743771</v>
       </c>
       <c r="D792" t="n">
-        <v>-7.926200517992883</v>
+        <v>-3.963100258996441</v>
       </c>
     </row>
     <row r="793">
@@ -11540,7 +11540,7 @@
         <v>82.90217434600901</v>
       </c>
       <c r="D793" t="n">
-        <v>-8.027442031693893</v>
+        <v>-4.013721015846946</v>
       </c>
     </row>
     <row r="794">
@@ -11554,7 +11554,7 @@
         <v>81.16277445475737</v>
       </c>
       <c r="D794" t="n">
-        <v>-8.107153662616049</v>
+        <v>-4.053576831308025</v>
       </c>
     </row>
     <row r="795">
@@ -11568,7 +11568,7 @@
         <v>79.98216210167725</v>
       </c>
       <c r="D795" t="n">
-        <v>-8.162252557943521</v>
+        <v>-4.081126278971761</v>
       </c>
     </row>
     <row r="796">
@@ -11582,7 +11582,7 @@
         <v>79.38527195325059</v>
       </c>
       <c r="D796" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="797">
@@ -11596,7 +11596,7 @@
         <v>79.38527195325059</v>
       </c>
       <c r="D797" t="n">
-        <v>-8.190424378650794</v>
+        <v>-4.095212189325397</v>
       </c>
     </row>
     <row r="798">
@@ -11610,7 +11610,7 @@
         <v>79.98216210167723</v>
       </c>
       <c r="D798" t="n">
-        <v>-8.162252557943523</v>
+        <v>-4.081126278971762</v>
       </c>
     </row>
     <row r="799">
@@ -11624,7 +11624,7 @@
         <v>81.16277445475737</v>
       </c>
       <c r="D799" t="n">
-        <v>-8.107153662616049</v>
+        <v>-4.053576831308025</v>
       </c>
     </row>
     <row r="800">
@@ -11638,7 +11638,7 @@
         <v>82.90217434600901</v>
       </c>
       <c r="D800" t="n">
-        <v>-8.027442031693893</v>
+        <v>-4.013721015846946</v>
       </c>
     </row>
     <row r="801">
@@ -11652,7 +11652,7 @@
         <v>85.1661312774377</v>
       </c>
       <c r="D801" t="n">
-        <v>-7.926200517992885</v>
+        <v>-3.963100258996442</v>
       </c>
     </row>
     <row r="802">
@@ -11666,7 +11666,7 @@
         <v>87.91412954470317</v>
       </c>
       <c r="D802" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="803">
@@ -11680,7 +11680,7 @@
         <v>91.10237802498555</v>
       </c>
       <c r="D803" t="n">
-        <v>-7.673219546179494</v>
+        <v>-3.836609773089747</v>
       </c>
     </row>
     <row r="804">
@@ -11694,7 +11694,7 @@
         <v>94.68641529479986</v>
       </c>
       <c r="D804" t="n">
-        <v>-7.528493481274289</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="805">
@@ -11708,7 +11708,7 @@
         <v>98.62310100741442</v>
       </c>
       <c r="D805" t="n">
-        <v>-7.375839186061325</v>
+        <v>-3.687919593030662</v>
       </c>
     </row>
     <row r="806">
@@ -11722,7 +11722,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D806" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="807">
@@ -11736,7 +11736,7 @@
         <v>107.3959413958444</v>
       </c>
       <c r="D807" t="n">
-        <v>-7.056969115347195</v>
+        <v>-3.528484557673598</v>
       </c>
     </row>
     <row r="808">
@@ -11750,7 +11750,7 @@
         <v>112.1617652916593</v>
       </c>
       <c r="D808" t="n">
-        <v>-6.894777428208952</v>
+        <v>-3.447388714104476</v>
       </c>
     </row>
     <row r="809">
@@ -11764,7 +11764,7 @@
         <v>117.1399155273312</v>
       </c>
       <c r="D809" t="n">
-        <v>-6.732770029660179</v>
+        <v>-3.366385014830089</v>
       </c>
     </row>
     <row r="810">
@@ -11778,7 +11778,7 @@
         <v>122.3044679377117</v>
       </c>
       <c r="D810" t="n">
-        <v>-6.572043782566354</v>
+        <v>-3.286021891283177</v>
       </c>
     </row>
     <row r="811">
@@ -11792,7 +11792,7 @@
         <v>127.6327967125638</v>
       </c>
       <c r="D811" t="n">
-        <v>-6.413425379364228</v>
+        <v>-3.206712689682114</v>
       </c>
     </row>
     <row r="812">
@@ -11806,7 +11806,7 @@
         <v>132.0288946143217</v>
       </c>
       <c r="D812" t="n">
-        <v>-6.287652266931214</v>
+        <v>-3.143826133465607</v>
       </c>
     </row>
     <row r="813">
@@ -11820,7 +11820,7 @@
         <v>126.8853068480972</v>
       </c>
       <c r="D813" t="n">
-        <v>-6.435258495009285</v>
+        <v>-3.217629247504643</v>
       </c>
     </row>
     <row r="814">
@@ -11834,7 +11834,7 @@
         <v>121.9149622735427</v>
       </c>
       <c r="D814" t="n">
-        <v>-6.583918564530239</v>
+        <v>-3.29195928226512</v>
       </c>
     </row>
     <row r="815">
@@ -11848,7 +11848,7 @@
         <v>117.1399155273312</v>
       </c>
       <c r="D815" t="n">
-        <v>-6.732770029660179</v>
+        <v>-3.366385014830089</v>
       </c>
     </row>
     <row r="816">
@@ -11862,7 +11862,7 @@
         <v>112.5850187401001</v>
       </c>
       <c r="D816" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="817">
@@ -11876,7 +11876,7 @@
         <v>108.2780584007419</v>
       </c>
       <c r="D817" t="n">
-        <v>-7.026397429019736</v>
+        <v>-3.513198714509868</v>
       </c>
     </row>
     <row r="818">
@@ -11890,7 +11890,7 @@
         <v>104.2497686746964</v>
       </c>
       <c r="D818" t="n">
-        <v>-7.168146525526846</v>
+        <v>-3.584073262763423</v>
       </c>
     </row>
     <row r="819">
@@ -11904,7 +11904,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D819" t="n">
-        <v>-7.303985085654318</v>
+        <v>-3.651992542827159</v>
       </c>
     </row>
     <row r="820">
@@ -11918,7 +11918,7 @@
         <v>97.16553657658876</v>
       </c>
       <c r="D820" t="n">
-        <v>-7.431621239967675</v>
+        <v>-3.715810619983837</v>
       </c>
     </row>
     <row r="821">
@@ -11932,7 +11932,7 @@
         <v>94.18276057757008</v>
       </c>
       <c r="D821" t="n">
-        <v>-7.548490395996806</v>
+        <v>-3.774245197998403</v>
       </c>
     </row>
     <row r="822">
@@ -11946,7 +11946,7 @@
         <v>91.62296727990635</v>
       </c>
       <c r="D822" t="n">
-        <v>-7.651840771095009</v>
+        <v>-3.825920385547505</v>
       </c>
     </row>
     <row r="823">
@@ -11960,7 +11960,7 @@
         <v>89.52244817756667</v>
       </c>
       <c r="D823" t="n">
-        <v>-7.738872673812097</v>
+        <v>-3.869436336906049</v>
       </c>
     </row>
     <row r="824">
@@ -11974,7 +11974,7 @@
         <v>87.91412954470317</v>
       </c>
       <c r="D824" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="825">
@@ -11988,7 +11988,7 @@
         <v>86.82536766906324</v>
       </c>
       <c r="D825" t="n">
-        <v>-7.853724849039664</v>
+        <v>-3.926862424519832</v>
       </c>
     </row>
     <row r="826">
@@ -12002,7 +12002,7 @@
         <v>86.27583450480553</v>
       </c>
       <c r="D826" t="n">
-        <v>-7.87757126706097</v>
+        <v>-3.938785633530485</v>
       </c>
     </row>
     <row r="827">
@@ -12016,7 +12016,7 @@
         <v>86.27583450480553</v>
       </c>
       <c r="D827" t="n">
-        <v>-7.87757126706097</v>
+        <v>-3.938785633530485</v>
       </c>
     </row>
     <row r="828">
@@ -12030,7 +12030,7 @@
         <v>86.82536766906324</v>
       </c>
       <c r="D828" t="n">
-        <v>-7.853724849039664</v>
+        <v>-3.926862424519832</v>
       </c>
     </row>
     <row r="829">
@@ -12044,7 +12044,7 @@
         <v>87.91412954470317</v>
       </c>
       <c r="D829" t="n">
-        <v>-7.806929607278197</v>
+        <v>-3.903464803639098</v>
       </c>
     </row>
     <row r="830">
@@ -12058,7 +12058,7 @@
         <v>89.52244817756667</v>
       </c>
       <c r="D830" t="n">
-        <v>-7.738872673812097</v>
+        <v>-3.869436336906049</v>
       </c>
     </row>
     <row r="831">
@@ -12072,7 +12072,7 @@
         <v>91.62296727990635</v>
       </c>
       <c r="D831" t="n">
-        <v>-7.651840771095009</v>
+        <v>-3.825920385547505</v>
       </c>
     </row>
     <row r="832">
@@ -12086,7 +12086,7 @@
         <v>94.18276057757008</v>
       </c>
       <c r="D832" t="n">
-        <v>-7.548490395996806</v>
+        <v>-3.774245197998403</v>
       </c>
     </row>
     <row r="833">
@@ -12100,7 +12100,7 @@
         <v>97.16553657658875</v>
       </c>
       <c r="D833" t="n">
-        <v>-7.431621239967677</v>
+        <v>-3.715810619983838</v>
       </c>
     </row>
     <row r="834">
@@ -12114,7 +12114,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D834" t="n">
-        <v>-7.303985085654318</v>
+        <v>-3.651992542827159</v>
       </c>
     </row>
     <row r="835">
@@ -12128,7 +12128,7 @@
         <v>104.2497686746964</v>
       </c>
       <c r="D835" t="n">
-        <v>-7.168146525526846</v>
+        <v>-3.584073262763423</v>
       </c>
     </row>
     <row r="836">
@@ -12142,7 +12142,7 @@
         <v>108.2780584007419</v>
       </c>
       <c r="D836" t="n">
-        <v>-7.026397429019736</v>
+        <v>-3.513198714509868</v>
       </c>
     </row>
     <row r="837">
@@ -12156,7 +12156,7 @@
         <v>112.5850187401</v>
       </c>
       <c r="D837" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="838">
@@ -12170,7 +12170,7 @@
         <v>117.1399155273312</v>
       </c>
       <c r="D838" t="n">
-        <v>-6.732770029660179</v>
+        <v>-3.366385014830089</v>
       </c>
     </row>
     <row r="839">
@@ -12184,7 +12184,7 @@
         <v>121.9149622735427</v>
       </c>
       <c r="D839" t="n">
-        <v>-6.583918564530239</v>
+        <v>-3.29195928226512</v>
       </c>
     </row>
     <row r="840">
@@ -12198,7 +12198,7 @@
         <v>126.8853068480972</v>
       </c>
       <c r="D840" t="n">
-        <v>-6.435258495009285</v>
+        <v>-3.217629247504643</v>
       </c>
     </row>
     <row r="841">
@@ -12212,7 +12212,7 @@
         <v>132.0288946143217</v>
       </c>
       <c r="D841" t="n">
-        <v>-6.287652266931214</v>
+        <v>-3.143826133465607</v>
       </c>
     </row>
     <row r="842">
@@ -12226,7 +12226,7 @@
         <v>136.631812111441</v>
       </c>
       <c r="D842" t="n">
-        <v>-6.160552740133787</v>
+        <v>-3.080276370066894</v>
       </c>
     </row>
     <row r="843">
@@ -12240,7 +12240,7 @@
         <v>131.6681592554261</v>
       </c>
       <c r="D843" t="n">
-        <v>-6.297807659216862</v>
+        <v>-3.148903829608431</v>
       </c>
     </row>
     <row r="844">
@@ -12254,7 +12254,7 @@
         <v>126.8853068480972</v>
       </c>
       <c r="D844" t="n">
-        <v>-6.435258495009284</v>
+        <v>-3.217629247504642</v>
       </c>
     </row>
     <row r="845">
@@ -12268,7 +12268,7 @@
         <v>122.3044679377117</v>
       </c>
       <c r="D845" t="n">
-        <v>-6.572043782566354</v>
+        <v>-3.286021891283177</v>
       </c>
     </row>
     <row r="846">
@@ -12282,7 +12282,7 @@
         <v>117.9491819068074</v>
       </c>
       <c r="D846" t="n">
-        <v>-6.707106398305463</v>
+        <v>-3.353553199152731</v>
       </c>
     </row>
     <row r="847">
@@ -12296,7 +12296,7 @@
         <v>113.8453380635805</v>
       </c>
       <c r="D847" t="n">
-        <v>-6.839172076491775</v>
+        <v>-3.419586038245888</v>
       </c>
     </row>
     <row r="848">
@@ -12310,7 +12310,7 @@
         <v>110.0210767830608</v>
       </c>
       <c r="D848" t="n">
-        <v>-6.966735045164554</v>
+        <v>-3.483367522582277</v>
       </c>
     </row>
     <row r="849">
@@ -12324,7 +12324,7 @@
         <v>106.5065186998655</v>
       </c>
       <c r="D849" t="n">
-        <v>-7.088056333958468</v>
+        <v>-3.544028166979234</v>
       </c>
     </row>
     <row r="850">
@@ -12338,7 +12338,7 @@
         <v>103.333269405322</v>
       </c>
       <c r="D850" t="n">
-        <v>-7.201181524244215</v>
+        <v>-3.600590762122108</v>
       </c>
     </row>
     <row r="851">
@@ -12352,7 +12352,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D851" t="n">
-        <v>-7.303985085654318</v>
+        <v>-3.651992542827159</v>
       </c>
     </row>
     <row r="852">
@@ -12366,7 +12366,7 @@
         <v>98.13965152246693</v>
       </c>
       <c r="D852" t="n">
-        <v>-7.39424715098176</v>
+        <v>-3.69712357549088</v>
       </c>
     </row>
     <row r="853">
@@ -12380,7 +12380,7 @@
         <v>96.18155642056105</v>
       </c>
       <c r="D853" t="n">
-        <v>-7.469764815047496</v>
+        <v>-3.734882407523748</v>
       </c>
     </row>
     <row r="854">
@@ -12394,7 +12394,7 @@
         <v>94.68641529479986</v>
       </c>
       <c r="D854" t="n">
-        <v>-7.528493481274289</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="855">
@@ -12408,7 +12408,7 @@
         <v>93.67639798073189</v>
       </c>
       <c r="D855" t="n">
-        <v>-7.568705204128375</v>
+        <v>-3.784352602064188</v>
       </c>
     </row>
     <row r="856">
@@ -12422,7 +12422,7 @@
         <v>93.1672833524572</v>
       </c>
       <c r="D856" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="857">
@@ -12436,7 +12436,7 @@
         <v>93.1672833524572</v>
       </c>
       <c r="D857" t="n">
-        <v>-7.589142655790707</v>
+        <v>-3.794571327895353</v>
       </c>
     </row>
     <row r="858">
@@ -12450,7 +12450,7 @@
         <v>93.67639798073189</v>
       </c>
       <c r="D858" t="n">
-        <v>-7.568705204128375</v>
+        <v>-3.784352602064188</v>
       </c>
     </row>
     <row r="859">
@@ -12464,7 +12464,7 @@
         <v>94.68641529479986</v>
       </c>
       <c r="D859" t="n">
-        <v>-7.528493481274289</v>
+        <v>-3.764246740637144</v>
       </c>
     </row>
     <row r="860">
@@ -12478,7 +12478,7 @@
         <v>96.18155642056105</v>
       </c>
       <c r="D860" t="n">
-        <v>-7.469764815047496</v>
+        <v>-3.734882407523748</v>
       </c>
     </row>
     <row r="861">
@@ -12492,7 +12492,7 @@
         <v>98.13965152246693</v>
       </c>
       <c r="D861" t="n">
-        <v>-7.39424715098176</v>
+        <v>-3.69712357549088</v>
       </c>
     </row>
     <row r="862">
@@ -12506,7 +12506,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D862" t="n">
-        <v>-7.303985085654318</v>
+        <v>-3.651992542827159</v>
       </c>
     </row>
     <row r="863">
@@ -12520,7 +12520,7 @@
         <v>103.333269405322</v>
       </c>
       <c r="D863" t="n">
-        <v>-7.201181524244215</v>
+        <v>-3.600590762122108</v>
       </c>
     </row>
     <row r="864">
@@ -12534,7 +12534,7 @@
         <v>106.5065186998655</v>
       </c>
       <c r="D864" t="n">
-        <v>-7.088056333958468</v>
+        <v>-3.544028166979234</v>
       </c>
     </row>
     <row r="865">
@@ -12548,7 +12548,7 @@
         <v>110.0210767830608</v>
       </c>
       <c r="D865" t="n">
-        <v>-6.966735045164554</v>
+        <v>-3.483367522582277</v>
       </c>
     </row>
     <row r="866">
@@ -12562,7 +12562,7 @@
         <v>113.8453380635805</v>
       </c>
       <c r="D866" t="n">
-        <v>-6.839172076491775</v>
+        <v>-3.419586038245888</v>
       </c>
     </row>
     <row r="867">
@@ -12576,7 +12576,7 @@
         <v>117.9491819068074</v>
       </c>
       <c r="D867" t="n">
-        <v>-6.707106398305463</v>
+        <v>-3.353553199152731</v>
       </c>
     </row>
     <row r="868">
@@ -12590,7 +12590,7 @@
         <v>122.3044679377117</v>
       </c>
       <c r="D868" t="n">
-        <v>-6.572043782566354</v>
+        <v>-3.286021891283177</v>
       </c>
     </row>
     <row r="869">
@@ -12604,7 +12604,7 @@
         <v>126.8853068480972</v>
       </c>
       <c r="D869" t="n">
-        <v>-6.435258495009285</v>
+        <v>-3.217629247504643</v>
       </c>
     </row>
     <row r="870">
@@ -12618,7 +12618,7 @@
         <v>131.6681592554261</v>
       </c>
       <c r="D870" t="n">
-        <v>-6.297807659216862</v>
+        <v>-3.148903829608431</v>
       </c>
     </row>
     <row r="871">
@@ -12632,7 +12632,7 @@
         <v>136.631812111441</v>
       </c>
       <c r="D871" t="n">
-        <v>-6.160552740133787</v>
+        <v>-3.080276370066894</v>
       </c>
     </row>
     <row r="872">
@@ -12646,7 +12646,7 @@
         <v>141.4213562373095</v>
       </c>
       <c r="D872" t="n">
-        <v>-6.032962325504049</v>
+        <v>-3.016481162752024</v>
       </c>
     </row>
     <row r="873">
@@ -12660,7 +12660,7 @@
         <v>136.631812111441</v>
       </c>
       <c r="D873" t="n">
-        <v>-6.160552740133787</v>
+        <v>-3.080276370066894</v>
       </c>
     </row>
     <row r="874">
@@ -12674,7 +12674,7 @@
         <v>132.0288946143217</v>
       </c>
       <c r="D874" t="n">
-        <v>-6.287652266931213</v>
+        <v>-3.143826133465606</v>
       </c>
     </row>
     <row r="875">
@@ -12688,7 +12688,7 @@
         <v>127.6327967125638</v>
       </c>
       <c r="D875" t="n">
-        <v>-6.413425379364228</v>
+        <v>-3.206712689682114</v>
       </c>
     </row>
     <row r="876">
@@ -12702,7 +12702,7 @@
         <v>123.465612344608</v>
       </c>
       <c r="D876" t="n">
-        <v>-6.536875269040906</v>
+        <v>-3.268437634520453</v>
       </c>
     </row>
     <row r="877">
@@ -12716,7 +12716,7 @@
         <v>119.5512815404118</v>
       </c>
       <c r="D877" t="n">
-        <v>-6.656832586043303</v>
+        <v>-3.328416293021652</v>
       </c>
     </row>
     <row r="878">
@@ -12730,7 +12730,7 @@
         <v>115.9154228549766</v>
       </c>
       <c r="D878" t="n">
-        <v>-6.771951579829506</v>
+        <v>-3.385975789914753</v>
       </c>
     </row>
     <row r="879">
@@ -12744,7 +12744,7 @@
         <v>112.5850187401001</v>
       </c>
       <c r="D879" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="880">
@@ -12758,7 +12758,7 @@
         <v>109.58792125566</v>
       </c>
       <c r="D880" t="n">
-        <v>-6.981470428803291</v>
+        <v>-3.490735214401646</v>
       </c>
     </row>
     <row r="881">
@@ -12772,7 +12772,7 @@
         <v>106.9521546156608</v>
       </c>
       <c r="D881" t="n">
-        <v>-7.072447213416867</v>
+        <v>-3.536223606708433</v>
       </c>
     </row>
     <row r="882">
@@ -12786,7 +12786,7 @@
         <v>104.7050100047516</v>
       </c>
       <c r="D882" t="n">
-        <v>-7.151848034620062</v>
+        <v>-3.575924017310031</v>
       </c>
     </row>
     <row r="883">
@@ -12800,7 +12800,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D883" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="884">
@@ -12814,7 +12814,7 @@
         <v>101.4754411693942</v>
       </c>
       <c r="D884" t="n">
-        <v>-7.269078160270714</v>
+        <v>-3.634539080135357</v>
       </c>
     </row>
     <row r="885">
@@ -12828,7 +12828,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D885" t="n">
-        <v>-7.303985085654316</v>
+        <v>-3.651992542827158</v>
       </c>
     </row>
     <row r="886">
@@ -12842,7 +12842,7 @@
         <v>100.059435369289</v>
       </c>
       <c r="D886" t="n">
-        <v>-7.321688736434033</v>
+        <v>-3.660844368217016</v>
       </c>
     </row>
     <row r="887">
@@ -12856,7 +12856,7 @@
         <v>100.059435369289</v>
       </c>
       <c r="D887" t="n">
-        <v>-7.321688736434033</v>
+        <v>-3.660844368217016</v>
       </c>
     </row>
     <row r="888">
@@ -12870,7 +12870,7 @@
         <v>100.5336533594017</v>
       </c>
       <c r="D888" t="n">
-        <v>-7.303985085654316</v>
+        <v>-3.651992542827158</v>
       </c>
     </row>
     <row r="889">
@@ -12884,7 +12884,7 @@
         <v>101.4754411693942</v>
       </c>
       <c r="D889" t="n">
-        <v>-7.269078160270714</v>
+        <v>-3.634539080135357</v>
       </c>
     </row>
     <row r="890">
@@ -12898,7 +12898,7 @@
         <v>102.8719578632848</v>
       </c>
       <c r="D890" t="n">
-        <v>-7.21792325105905</v>
+        <v>-3.608961625529525</v>
       </c>
     </row>
     <row r="891">
@@ -12912,7 +12912,7 @@
         <v>104.7050100047516</v>
       </c>
       <c r="D891" t="n">
-        <v>-7.151848034620062</v>
+        <v>-3.575924017310031</v>
       </c>
     </row>
     <row r="892">
@@ -12926,7 +12926,7 @@
         <v>106.9521546156608</v>
       </c>
       <c r="D892" t="n">
-        <v>-7.072447213416867</v>
+        <v>-3.536223606708433</v>
       </c>
     </row>
     <row r="893">
@@ -12940,7 +12940,7 @@
         <v>109.58792125566</v>
       </c>
       <c r="D893" t="n">
-        <v>-6.981470428803291</v>
+        <v>-3.490735214401646</v>
       </c>
     </row>
     <row r="894">
@@ -12954,7 +12954,7 @@
         <v>112.5850187401001</v>
       </c>
       <c r="D894" t="n">
-        <v>-6.880717613478976</v>
+        <v>-3.440358806739488</v>
       </c>
     </row>
     <row r="895">
@@ -12968,7 +12968,7 @@
         <v>115.9154228549766</v>
       </c>
       <c r="D895" t="n">
-        <v>-6.771951579829506</v>
+        <v>-3.385975789914753</v>
       </c>
     </row>
     <row r="896">
@@ -12982,7 +12982,7 @@
         <v>119.5512815404118</v>
       </c>
       <c r="D896" t="n">
-        <v>-6.656832586043303</v>
+        <v>-3.328416293021652</v>
       </c>
     </row>
     <row r="897">
@@ -12996,7 +12996,7 @@
         <v>123.465612344608</v>
       </c>
       <c r="D897" t="n">
-        <v>-6.536875269040906</v>
+        <v>-3.268437634520453</v>
       </c>
     </row>
     <row r="898">
@@ -13010,7 +13010,7 @@
         <v>127.6327967125638</v>
       </c>
       <c r="D898" t="n">
-        <v>-6.413425379364228</v>
+        <v>-3.206712689682114</v>
       </c>
     </row>
     <row r="899">
@@ -13024,7 +13024,7 @@
         <v>132.0288946143217</v>
       </c>
       <c r="D899" t="n">
-        <v>-6.287652266931214</v>
+        <v>-3.143826133465607</v>
       </c>
     </row>
     <row r="900">
@@ -13038,7 +13038,7 @@
         <v>136.631812111441</v>
       </c>
       <c r="D900" t="n">
-        <v>-6.160552740133787</v>
+        <v>-3.080276370066894</v>
       </c>
     </row>
     <row r="901">
@@ -13052,10 +13052,10 @@
         <v>141.4213562373095</v>
       </c>
       <c r="D901" t="n">
-        <v>-6.032962325504049</v>
+        <v>-3.016481162752024</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>